--- a/ResumeProjects/Certification Tracker Public.xlsx
+++ b/ResumeProjects/Certification Tracker Public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coraline\ResumeProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{595219EC-10FA-41AA-A3C5-E93C274CF9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6291,7 +6291,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="2">
-        <f>Q2*P2</f>
+        <f t="shared" ref="R2:R38" si="0">Q2*P2</f>
         <v>300</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="65">
-        <f>Q3*P3</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S3" s="63" t="s">
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <f>Q4*P4</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <f>Q5*P5</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <f>Q6*P6</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <f>Q7*P7</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <f>Q8*P8</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2">
-        <f>Q9*P9</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2">
-        <f>Q10*P10</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <f>Q11*P11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -7039,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <f>Q12*P12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <f>Q13*P13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2">
-        <f>Q14*P14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -7215,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="2">
-        <f>Q15*P15</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="2">
-        <f>Q16*P16</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="2">
-        <f>Q17*P17</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -7391,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="2">
-        <f>Q18*P18</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <f>Q19*P19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="K20" s="45"/>
       <c r="L20" s="45">
-        <v>44859</v>
+        <v>45224</v>
       </c>
       <c r="M20" s="46">
         <v>1</v>
@@ -7510,7 +7510,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="2">
-        <f>Q20*P20</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -7569,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="2">
-        <f>Q21*P21</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S21" s="3" t="s">
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <f>Q22*P22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -7687,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="2">
-        <f>Q23*P23</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -7746,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f>Q24*P24</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <f>Q25*P25</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -7862,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f>Q26*P26</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="S26" s="3" t="s">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="K27" s="45"/>
       <c r="L27" s="45">
-        <v>44817</v>
+        <v>45182</v>
       </c>
       <c r="M27" s="46">
         <v>1</v>
@@ -7923,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="R27" s="2">
-        <f>Q27*P27</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="S27" s="3" t="s">
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f>Q28*P28</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="2">
-        <f>Q29*P29</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="S29" s="3" t="s">
@@ -8101,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="R30" s="2">
-        <f>Q30*P30</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="14">
-        <f>Q31*P31</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="S31" s="12" t="s">
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f>Q32*P32</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="S32" s="12" t="s">
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="R33" s="14">
-        <f>Q33*P33</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S33" s="12" t="s">
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="R34" s="14">
-        <f>Q34*P34</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S34" s="12" t="s">
@@ -8401,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="R35" s="14">
-        <f>Q35*P35</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="S35" s="12" t="s">
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="65">
-        <f>Q36*P36</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S36" s="63" t="s">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="2">
-        <f>Q37*P37</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="S37" s="3" t="s">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="14">
-        <f>Q38*P38</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="S38" s="12" t="s">
@@ -8588,7 +8588,7 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -23262,7 +23262,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{402DF5D3-D3AA-4690-AAC1-16B1E4D046BA}">
+      <autoFilter ref="B2:S40" xr:uid="{04FCFAB8-27BE-4CFB-8223-9C59B4A9743B}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>

--- a/ResumeProjects/Certification Tracker Public.xlsx
+++ b/ResumeProjects/Certification Tracker Public.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coraline\ResumeProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/ResumeProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E213795-083C-4CDB-8B20-1AA3EF280032}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Coursera Transcripts" sheetId="5" r:id="rId2"/>
+    <sheet name="Specializations" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$47</definedName>
     <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$40</definedName>
@@ -26,7 +31,7 @@
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,8 +48,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="237">
   <si>
     <t>My Certifications</t>
   </si>
@@ -226,9 +253,6 @@
     <t>https://www.coursera.org/</t>
   </si>
   <si>
-    <t>https://www.coursera.org/account/accomplishments/professional-cert/WVT55DR6YP55</t>
-  </si>
-  <si>
     <t>Vetjobs</t>
   </si>
   <si>
@@ -242,9 +266,6 @@
   </si>
   <si>
     <t>IBM</t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/account/accomplishments/professional-cert/CMXGKU9D2JRX</t>
   </si>
   <si>
     <t>SHMR-SCP</t>
@@ -520,16 +541,260 @@
   <si>
     <t>Azure</t>
   </si>
+  <si>
+    <t>Certificate Name</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Enrollment Date</t>
+  </si>
+  <si>
+    <t>Grade Achieved</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Google Data Analytics Capstone: Complete a Case Study</t>
+  </si>
+  <si>
+    <t>Statistics for Data Science with Python</t>
+  </si>
+  <si>
+    <t>Using Python to Interact with the Operating System</t>
+  </si>
+  <si>
+    <t>Getting Started with SAS Visual Analytics</t>
+  </si>
+  <si>
+    <t>Agile Meets Design Thinking</t>
+  </si>
+  <si>
+    <t>Analyze Data to Answer Questions</t>
+  </si>
+  <si>
+    <t>Programming for Everybody (Getting Started with Python)</t>
+  </si>
+  <si>
+    <t>Share Data Through the Art of Visualization</t>
+  </si>
+  <si>
+    <t>Process Data from Dirty to Clean</t>
+  </si>
+  <si>
+    <t>Prepare Data for Exploration</t>
+  </si>
+  <si>
+    <t>Getting and Cleaning Data</t>
+  </si>
+  <si>
+    <t>Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>Automating Real-World Tasks with Python</t>
+  </si>
+  <si>
+    <t>Ask Questions to Make Data-Driven Decisions</t>
+  </si>
+  <si>
+    <t>Data Analysis with R Programming</t>
+  </si>
+  <si>
+    <t>Foundations: Data, Data, Everywhere</t>
+  </si>
+  <si>
+    <t>Capstone: Applying Project Management in the Real World</t>
+  </si>
+  <si>
+    <t>Project Execution: Running the Project</t>
+  </si>
+  <si>
+    <t>Project Planning: Putting It All Together</t>
+  </si>
+  <si>
+    <t>Scripting with Python and SQL for Data Engineering</t>
+  </si>
+  <si>
+    <t>R Programming</t>
+  </si>
+  <si>
+    <t>Getting Started with Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Project Initiation: Starting a Successful Project</t>
+  </si>
+  <si>
+    <t>Foundations of Project Management</t>
+  </si>
+  <si>
+    <t>SQL for Data Science</t>
+  </si>
+  <si>
+    <t>Agile Project Management</t>
+  </si>
+  <si>
+    <t>Data Visualization with Python</t>
+  </si>
+  <si>
+    <t>IBM Data Analyst Capstone Project</t>
+  </si>
+  <si>
+    <t>Python Project for Data Science</t>
+  </si>
+  <si>
+    <t>Data Analysis with Python</t>
+  </si>
+  <si>
+    <t>Databases and SQL for Data Science with Python</t>
+  </si>
+  <si>
+    <t>Python for Data Science, AI &amp; Development</t>
+  </si>
+  <si>
+    <t>Data Visualization and Dashboards with Excel and Cognos</t>
+  </si>
+  <si>
+    <t>Introduction to Data Analytics</t>
+  </si>
+  <si>
+    <t>Excel Basics for Data Analysis</t>
+  </si>
+  <si>
+    <t>Machine Learning with Python</t>
+  </si>
+  <si>
+    <t>Hypothesis-Driven Development</t>
+  </si>
+  <si>
+    <t>Applied Data Science Capstone</t>
+  </si>
+  <si>
+    <t>Coursera Career Services Orientation</t>
+  </si>
+  <si>
+    <t>Data Science Methodology</t>
+  </si>
+  <si>
+    <t>Tools for Data Science</t>
+  </si>
+  <si>
+    <t>Google Cloud Big Data and Machine Learning Fundamentals</t>
+  </si>
+  <si>
+    <t>What is Data Science?</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning: Classification</t>
+  </si>
+  <si>
+    <t>Fundamentals of Scalable Data Science</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning: Regression</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis for Machine Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Scrum Master Certification: Scrum Methodologies</t>
+  </si>
+  <si>
+    <t>Introduction to Git and GitHub</t>
+  </si>
+  <si>
+    <t>Crash Course on Python</t>
+  </si>
+  <si>
+    <t>Agile Leadership: Introduction to Change</t>
+  </si>
+  <si>
+    <t>Data Analysis in Python with pandas &amp; matplotlib in Spyder</t>
+  </si>
+  <si>
+    <t>Introduction to Scrum Master Training</t>
+  </si>
+  <si>
+    <t>Introduction to Agile Development and Scrum</t>
+  </si>
+  <si>
+    <t>The Data Scientist’s Toolbox</t>
+  </si>
+  <si>
+    <t>Extract Text Data with Python and Regex</t>
+  </si>
+  <si>
+    <t>Machine Learning Foundations: A Case Study Approach</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/da07681340ea5f345cef21d04197f166</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/5631a803ab6306376ad8bb953022b557</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/5631a803ab6306376ad8bb953022b558</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/5631a803ab6306376ad8bb953022b559</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/5631a803ab6306376ad8bb953022b560</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/5631a803ab6306376ad8bb953022b561</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</t>
+  </si>
+  <si>
+    <t>Introduction to Data Science</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd47</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd48</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd49</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd50</t>
+  </si>
+  <si>
+    <t>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,80 +802,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF18606C"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,6 +903,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,12 +911,14 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,6 +939,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -817,105 +1111,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
@@ -930,106 +1225,106 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1038,42 +1333,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4571,6 +4927,21 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Coursera Transcripts"/>
+      <sheetName val="Specializations"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hamilton, Cole B MSG MIL USA TRADOC USAREC" refreshedDate="44650.745903240742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
@@ -5970,87 +6341,126 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y38" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
   <autoFilter ref="B1:Y38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y38">
     <sortCondition descending="1" ref="J1:J38"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="44"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="43"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="49"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="48"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="46"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="43"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="39">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="30">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="35">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B48:B55" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B48:B55" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="B48:B55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C48:C55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C48:C55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="C48:C55" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D48:D56" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D48:D56" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="D48:D56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E48:F55" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E48:F55" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="E48:F55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Funding Source" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Funding Source" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EB406B1-D85A-4748-81CC-97C25AAD497E}" name="Courses" displayName="Courses" ref="A1:E59" totalsRowShown="0">
+  <autoFilter ref="A1:E59" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="greaterThan" val="70"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
+    <sortCondition ref="A1:A59"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="4">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
+    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A59D60FC-1232-4F93-8CF0-BFBE335BAE30}" name="Specialization" displayName="Specialization" ref="A1:E38" totalsRowShown="0">
+  <autoFilter ref="A1:E38" xr:uid="{412E2EE3-B3A4-446B-82F0-D65A0E07D429}"/>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:X8" totalsRowShown="0">
   <autoFilter ref="A1:X8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="24">
@@ -6061,8 +6471,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6288,10 +6698,10 @@
   <dimension ref="B1:Y1006"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6320,7 +6730,7 @@
     <col min="23" max="30" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6331,16 +6741,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>4</v>
@@ -6349,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>6</v>
@@ -6391,28 +6801,28 @@
         <v>18</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I2" s="45">
         <v>44501</v>
@@ -6431,7 +6841,10 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
       <c r="P2" s="2">
         <v>300</v>
       </c>
@@ -6443,7 +6856,7 @@
         <v>300</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
@@ -6454,25 +6867,25 @@
     </row>
     <row r="3" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="61">
         <v>44835</v>
@@ -6491,7 +6904,10 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="64"/>
+      <c r="O3" s="64" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
       <c r="P3" s="65">
         <v>300</v>
       </c>
@@ -6503,7 +6919,7 @@
         <v>300</v>
       </c>
       <c r="S3" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T3" s="65"/>
       <c r="U3" s="63"/>
@@ -6514,23 +6930,23 @@
     </row>
     <row r="4" spans="2:25" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I4" s="45">
         <v>44618</v>
@@ -6550,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2">
         <v>270</v>
@@ -6569,20 +6985,20 @@
       <c r="U4" s="3"/>
       <c r="V4" s="43"/>
       <c r="W4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>52</v>
@@ -6592,7 +7008,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="45">
         <v>44646</v>
@@ -6636,10 +7052,10 @@
     </row>
     <row r="6" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>58</v>
@@ -6651,10 +7067,10 @@
         <v>47</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="45">
         <v>44634</v>
@@ -6674,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P6" s="2">
         <v>6000</v>
@@ -6695,30 +7111,30 @@
       <c r="U6" s="3"/>
       <c r="V6" s="43"/>
       <c r="W6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="74"/>
     </row>
     <row r="7" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="47" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="45">
         <v>44593</v>
@@ -6755,17 +7171,17 @@
       <c r="U7" s="3"/>
       <c r="V7" s="43"/>
       <c r="W7" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>36</v>
@@ -6775,10 +7191,10 @@
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="45">
         <v>44614</v>
@@ -6796,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2">
         <v>100</v>
@@ -6809,7 +7225,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
@@ -6820,10 +7236,10 @@
     </row>
     <row r="9" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>36</v>
@@ -6833,10 +7249,10 @@
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I9" s="45">
         <v>44613</v>
@@ -6854,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2">
         <v>100</v>
@@ -6867,7 +7283,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
@@ -6878,23 +7294,23 @@
     </row>
     <row r="10" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>74</v>
-      </c>
       <c r="E10" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10" s="45">
         <v>44571</v>
@@ -6914,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2">
         <v>270</v>
@@ -6938,7 +7354,7 @@
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>46</v>
@@ -6954,7 +7370,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I11" s="45">
         <v>44409</v>
@@ -6996,7 +7412,7 @@
     </row>
     <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>46</v>
@@ -7012,7 +7428,7 @@
         <v>48</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I12" s="45">
         <v>44409</v>
@@ -7054,7 +7470,7 @@
     </row>
     <row r="13" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>46</v>
@@ -7070,7 +7486,7 @@
         <v>48</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="45">
         <v>44409</v>
@@ -7112,7 +7528,7 @@
     </row>
     <row r="14" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>46</v>
@@ -7128,7 +7544,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="45">
         <v>44409</v>
@@ -7170,7 +7586,7 @@
     </row>
     <row r="15" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>20</v>
@@ -7179,14 +7595,14 @@
         <v>21</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F15" s="59"/>
       <c r="G15" s="44" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I15" s="45">
         <v>44577</v>
@@ -7230,23 +7646,23 @@
     </row>
     <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="47" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I16" s="45">
         <v>44470</v>
@@ -7263,8 +7679,9 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="48" t="s">
-        <v>66</v>
+      <c r="O16" s="48" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
       <c r="P16" s="2">
         <v>300</v>
@@ -7277,7 +7694,7 @@
         <v>300</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="3"/>
@@ -7288,23 +7705,23 @@
     </row>
     <row r="17" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I17" s="45">
         <v>44501</v>
@@ -7322,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P17" s="2">
         <v>1500</v>
@@ -7335,7 +7752,7 @@
         <v>1500</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
@@ -7344,7 +7761,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>56</v>
       </c>
@@ -7355,16 +7772,16 @@
         <v>58</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G18" s="47" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I18" s="45">
         <v>44470</v>
@@ -7381,8 +7798,9 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>60</v>
+      <c r="O18" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
       <c r="P18" s="2">
         <v>300</v>
@@ -7395,7 +7813,7 @@
         <v>300</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="3"/>
@@ -7422,7 +7840,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I19" s="45">
         <v>44409</v>
@@ -7480,7 +7898,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I20" s="45">
         <f>J20-45</f>
@@ -7531,7 +7949,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="59" t="s">
         <v>52</v>
@@ -7541,7 +7959,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I21" s="45">
         <f>J21-7</f>
@@ -7600,7 +8018,7 @@
         <v>48</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I22" s="45">
         <v>44409</v>
@@ -7658,7 +8076,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I23" s="45">
         <v>44476</v>
@@ -7718,7 +8136,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I24" s="45">
         <f>J24-7</f>
@@ -7777,7 +8195,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I25" s="45">
         <v>44409</v>
@@ -7835,7 +8253,7 @@
         <v>37</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I26" s="45">
         <v>44409</v>
@@ -7893,7 +8311,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I27" s="45">
         <f>J27-45</f>
@@ -7947,14 +8365,14 @@
         <v>28</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="59"/>
       <c r="G28" s="47" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I28" s="45">
         <v>44409</v>
@@ -8005,14 +8423,14 @@
         <v>21</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="44" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I29" s="45">
         <v>44256</v>
@@ -8058,23 +8476,23 @@
     </row>
     <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I30" s="45">
         <v>44531</v>
@@ -8092,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2">
         <v>300</v>
@@ -8113,34 +8531,34 @@
       <c r="U30" s="3"/>
       <c r="V30" s="43"/>
       <c r="W30" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="X30" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="X30" s="52" t="s">
-        <v>87</v>
-      </c>
       <c r="Y30" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="68"/>
       <c r="G31" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I31" s="57">
         <v>44531</v>
@@ -8156,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P31" s="14">
         <v>2000</v>
@@ -8177,28 +8595,28 @@
       <c r="W31" s="54"/>
       <c r="X31" s="80"/>
       <c r="Y31" s="80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="90" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="68"/>
       <c r="G32" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I32" s="57">
         <v>44618</v>
@@ -8216,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P32" s="14">
         <v>500</v>
@@ -8235,30 +8653,30 @@
       <c r="U32" s="12"/>
       <c r="V32" s="54"/>
       <c r="W32" s="54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I33" s="57">
         <v>44562</v>
@@ -8276,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P33" s="14">
         <v>300</v>
@@ -8300,23 +8718,23 @@
     </row>
     <row r="34" spans="2:25" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F34" s="68"/>
       <c r="G34" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I34" s="57">
         <v>44531</v>
@@ -8334,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P34" s="14">
         <v>300</v>
@@ -8353,30 +8771,30 @@
       <c r="U34" s="12"/>
       <c r="V34" s="54"/>
       <c r="W34" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
     <row r="35" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="68" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F35" s="68"/>
       <c r="G35" s="56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I35" s="57">
         <v>44571</v>
@@ -8416,25 +8834,25 @@
     </row>
     <row r="36" spans="2:25" ht="150" x14ac:dyDescent="0.25">
       <c r="B36" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F36" s="59" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I36" s="61">
         <v>44844</v>
@@ -8451,7 +8869,10 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="64"/>
+      <c r="O36" s="64">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>0</v>
+      </c>
       <c r="P36" s="65">
         <v>300</v>
       </c>
@@ -8463,7 +8884,7 @@
         <v>300</v>
       </c>
       <c r="S36" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="63"/>
@@ -8474,7 +8895,7 @@
     </row>
     <row r="37" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>57</v>
@@ -8483,14 +8904,14 @@
         <v>58</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I37" s="45">
         <v>44531</v>
@@ -8507,7 +8928,10 @@
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="1"/>
+      <c r="O37" s="1">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>0</v>
+      </c>
       <c r="P37" s="2">
         <v>300</v>
       </c>
@@ -8519,7 +8943,7 @@
         <v>300</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="3"/>
@@ -8530,7 +8954,7 @@
     </row>
     <row r="38" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>46</v>
@@ -8546,7 +8970,7 @@
         <v>48</v>
       </c>
       <c r="H38" s="76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="57">
         <v>44409</v>
@@ -8583,7 +9007,7 @@
       <c r="U38" s="12"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
@@ -8795,19 +9219,19 @@
     </row>
     <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -8824,13 +9248,13 @@
     </row>
     <row r="49" spans="2:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Proponent Funded")</f>
@@ -8855,13 +9279,13 @@
     </row>
     <row r="50" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" s="27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESI")</f>
@@ -8886,13 +9310,13 @@
     </row>
     <row r="51" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ArmyIgnited")</f>
@@ -8912,10 +9336,10 @@
         <v>20</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Self")</f>
@@ -8932,13 +9356,13 @@
     </row>
     <row r="53" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="E53" s="27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vetjobs")</f>
@@ -8955,13 +9379,13 @@
     </row>
     <row r="54" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E54" s="27" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unit")</f>
@@ -8978,16 +9402,16 @@
     </row>
     <row r="55" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>120</v>
-      </c>
       <c r="E55" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F55" s="31" t="e">
         <f ca="1">SUM(F49:F54)</f>
@@ -23262,7 +23686,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{04FCFAB8-27BE-4CFB-8223-9C59B4A9743B}">
+      <autoFilter ref="B2:S40" xr:uid="{B14308AF-B0FF-4947-92D6-E32A90BB46B2}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -23299,71 +23723,1701 @@
     <hyperlink ref="G19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="O19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="O17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="O16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G10" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G9" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O9" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G8" r:id="rId43" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O8" r:id="rId44" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="O7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G4" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O4" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="O30" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Y31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G38" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O38" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D49" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D50" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D51" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D52" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D53" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D54" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D55" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G17" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G6" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O6" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G13" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G14" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O14" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G10" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O10" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G9" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O9" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G8" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O8" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G4" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y30" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G31" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O31" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Y31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G32" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G33" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D49" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D50" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D51" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D52" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D53" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D54" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D55" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G17" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G6" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O6" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G36" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId75"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId73"/>
   <tableParts count="5">
+    <tablePart r:id="rId74"/>
+    <tablePart r:id="rId75"/>
     <tablePart r:id="rId76"/>
     <tablePart r:id="rId77"/>
     <tablePart r:id="rId78"/>
-    <tablePart r:id="rId79"/>
-    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF8F63-B8B9-4625-999F-CA4AB410A71C}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="str" cm="1">
+        <f t="array" ref="A2">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="83">
+        <v>44558</v>
+      </c>
+      <c r="D2" s="84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="e" cm="1">
+        <f t="array" ref="A3">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="83">
+        <v>44640</v>
+      </c>
+      <c r="D3" s="84">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="e" cm="1">
+        <f t="array" ref="A4">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="83">
+        <v>44624</v>
+      </c>
+      <c r="D4" s="84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="e" cm="1">
+        <f t="array" ref="A5">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="83">
+        <v>44616</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="e" cm="1">
+        <f t="array" ref="A6">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="83">
+        <v>44578</v>
+      </c>
+      <c r="D6" s="84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="str" cm="1">
+        <f t="array" ref="A7">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="83">
+        <v>44556</v>
+      </c>
+      <c r="D7" s="84">
+        <v>94.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="e" cm="1">
+        <f t="array" ref="A8">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="83">
+        <v>44697</v>
+      </c>
+      <c r="D8" s="84">
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="str" cm="1">
+        <f t="array" ref="A9">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="83">
+        <v>44528</v>
+      </c>
+      <c r="D9" s="84">
+        <v>91.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="str" cm="1">
+        <f t="array" ref="A10">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="83">
+        <v>44515</v>
+      </c>
+      <c r="D10" s="84">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="str" cm="1">
+        <f t="array" ref="A11">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="83">
+        <v>44514</v>
+      </c>
+      <c r="D11" s="84">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="e" cm="1">
+        <f t="array" ref="A12">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="83">
+        <v>44503</v>
+      </c>
+      <c r="D12" s="84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="e" cm="1">
+        <f t="array" ref="A13">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="83">
+        <v>44682</v>
+      </c>
+      <c r="D13" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="82" t="e" cm="1">
+        <f t="array" ref="A14">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="83">
+        <v>44700</v>
+      </c>
+      <c r="D14" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="str" cm="1">
+        <f t="array" ref="A15">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="83">
+        <v>44513</v>
+      </c>
+      <c r="D15" s="84">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="str" cm="1">
+        <f t="array" ref="A16">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="83">
+        <v>44501</v>
+      </c>
+      <c r="D16" s="84">
+        <v>83.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="str" cm="1">
+        <f t="array" ref="A17">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Data Analytics</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="83">
+        <v>44501</v>
+      </c>
+      <c r="D17" s="84">
+        <v>87.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="str" cm="1">
+        <f t="array" ref="A18">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="83">
+        <v>44626</v>
+      </c>
+      <c r="D18" s="84">
+        <v>93.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="str" cm="1">
+        <f t="array" ref="A19">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="83">
+        <v>44624</v>
+      </c>
+      <c r="D19" s="84">
+        <v>92.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="str" cm="1">
+        <f t="array" ref="A20">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="83">
+        <v>44611</v>
+      </c>
+      <c r="D20" s="84">
+        <v>94.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="e" cm="1">
+        <f t="array" ref="A21">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="83">
+        <v>44689</v>
+      </c>
+      <c r="D21" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="e" cm="1">
+        <f t="array" ref="A22">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="83">
+        <v>44488</v>
+      </c>
+      <c r="D22" s="84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="e" cm="1">
+        <f t="array" ref="A23">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="83">
+        <v>44557</v>
+      </c>
+      <c r="D23" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="82" t="str" cm="1">
+        <f t="array" ref="A24">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="83">
+        <v>44576</v>
+      </c>
+      <c r="D24" s="84">
+        <v>92.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="str" cm="1">
+        <f t="array" ref="A25">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="83">
+        <v>44518</v>
+      </c>
+      <c r="D25" s="84">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="82" t="e" cm="1">
+        <f t="array" ref="A26">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="83">
+        <v>44668</v>
+      </c>
+      <c r="D26" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="82" t="str" cm="1">
+        <f t="array" ref="A27">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>Google Project Management</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="83">
+        <v>44518</v>
+      </c>
+      <c r="D27" s="84">
+        <v>86.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="str" cm="1">
+        <f t="array" ref="A28">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="83">
+        <v>44562</v>
+      </c>
+      <c r="D28" s="84">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="str" cm="1">
+        <f t="array" ref="A29">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="83">
+        <v>44562</v>
+      </c>
+      <c r="D29" s="84">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="82" t="str" cm="1">
+        <f t="array" ref="A30">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="83">
+        <v>44560</v>
+      </c>
+      <c r="D30" s="84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="str" cm="1">
+        <f t="array" ref="A31">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="83">
+        <v>44560</v>
+      </c>
+      <c r="D31" s="84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="82" t="str" cm="1">
+        <f t="array" ref="A32">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="83">
+        <v>44517</v>
+      </c>
+      <c r="D32" s="84">
+        <v>84.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="82" t="str" cm="1">
+        <f t="array" ref="A33">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="83">
+        <v>44515</v>
+      </c>
+      <c r="D33" s="84">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="str" cm="1">
+        <f t="array" ref="A34">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="83">
+        <v>44513</v>
+      </c>
+      <c r="D34" s="84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="82" t="str" cm="1">
+        <f t="array" ref="A35">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="83">
+        <v>44512</v>
+      </c>
+      <c r="D35" s="84">
+        <v>95.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="82" t="str" cm="1">
+        <f t="array" ref="A36">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Analyst</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="83">
+        <v>44512</v>
+      </c>
+      <c r="D36" s="84">
+        <v>97.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="str" cm="1">
+        <f t="array" ref="A37">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="83">
+        <v>44608</v>
+      </c>
+      <c r="D37" s="84">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="82" t="e" cm="1">
+        <f t="array" ref="A38">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="83">
+        <v>44583</v>
+      </c>
+      <c r="D38" s="84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="str" cm="1">
+        <f t="array" ref="A39">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="83">
+        <v>44608</v>
+      </c>
+      <c r="D39" s="84">
+        <v>87.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="82" t="e" cm="1">
+        <f t="array" ref="A40">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="83">
+        <v>44582</v>
+      </c>
+      <c r="D40" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="str" cm="1">
+        <f t="array" ref="A41">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="83">
+        <v>44577</v>
+      </c>
+      <c r="D41" s="84">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="82" t="str" cm="1">
+        <f t="array" ref="A42">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="83">
+        <v>44570</v>
+      </c>
+      <c r="D42" s="84">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="e" cm="1">
+        <f t="array" ref="A43">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="83">
+        <v>44705</v>
+      </c>
+      <c r="D43" s="84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="82" t="str" cm="1">
+        <f t="array" ref="A44">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>IBM Data Science</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="83">
+        <v>44522</v>
+      </c>
+      <c r="D44" s="84">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="82" t="e" cm="1">
+        <f t="array" ref="A45">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="83">
+        <v>44701</v>
+      </c>
+      <c r="D45" s="84">
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="82" t="e" cm="1">
+        <f t="array" ref="A46">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="83">
+        <v>44494</v>
+      </c>
+      <c r="D46" s="84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="82" t="e" cm="1">
+        <f t="array" ref="A47">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="83">
+        <v>44700</v>
+      </c>
+      <c r="D47" s="84">
+        <v>90.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="82" t="e" cm="1">
+        <f t="array" ref="A48">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="83">
+        <v>44680</v>
+      </c>
+      <c r="D48" s="84">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="82" t="e" cm="1">
+        <f t="array" ref="A49">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="83">
+        <v>44718</v>
+      </c>
+      <c r="D49" s="84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="82" t="e" cm="1">
+        <f t="array" ref="A50">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="83">
+        <v>44613</v>
+      </c>
+      <c r="D50" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="82" t="e" cm="1">
+        <f t="array" ref="A51">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B51" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="83">
+        <v>44608</v>
+      </c>
+      <c r="D51" s="84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="82" t="e" cm="1">
+        <f t="array" ref="A52">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B52" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="83">
+        <v>44596</v>
+      </c>
+      <c r="D52" s="84">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="82" t="e" cm="1">
+        <f t="array" ref="A53">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="83">
+        <v>44560</v>
+      </c>
+      <c r="D53" s="84">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="82" t="e" cm="1">
+        <f t="array" ref="A54">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B54" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="83">
+        <v>44596</v>
+      </c>
+      <c r="D54" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="82" t="e" cm="1">
+        <f t="array" ref="A55">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B55" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="83">
+        <v>44554</v>
+      </c>
+      <c r="D55" s="84">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="82" t="e" cm="1">
+        <f t="array" ref="A56">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="83">
+        <v>44550</v>
+      </c>
+      <c r="D56" s="84">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="82" t="e" cm="1">
+        <f t="array" ref="A57">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B57" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="83">
+        <v>44488</v>
+      </c>
+      <c r="D57" s="84">
+        <v>90.89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="82" t="e" cm="1">
+        <f t="array" ref="A58">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B58" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="83">
+        <v>44633</v>
+      </c>
+      <c r="D58" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="82" t="e" cm="1">
+        <f t="array" ref="A59">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B59" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="83">
+        <v>44702</v>
+      </c>
+      <c r="D59" s="84">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07C6D5-189D-4DB4-B710-2C1606549B1C}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82">
+        <v>1</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="82">
+        <v>2</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E3" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E2, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
+        <v>3</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E4" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E3, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
+        <v>4</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E5" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E4, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="82">
+        <v>5</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E6" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E5, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
+        <v>6</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E7" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E6, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="82">
+        <v>7</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E8" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E7, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
+        <v>8</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E9" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E8, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
+        <v>9</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="87">
+        <v>44577</v>
+      </c>
+      <c r="E10" s="82" t="str">
+        <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E9, 0)</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="87">
+        <v>44695</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="82">
+        <f t="shared" ref="A12:A38" si="0">A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="87">
+        <v>44695</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="82">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="87">
+        <v>44695</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="82">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="87">
+        <v>44695</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="82">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="87">
+        <v>44695</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="82">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="87">
+        <v>44695</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="82">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="82">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="82">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="82">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="82">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="82">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="82">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="82">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="82">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="82">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="89">
+        <v>44687</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="82">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="87">
+        <v>44578</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="82">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="87">
+        <v>44578</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="82">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="87">
+        <v>44578</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="82">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="87">
+        <v>44578</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="82">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="82">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="82">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="82">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="82">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="82">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="82">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="82">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="87">
+        <v>44559</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{80006BF7-9ED9-4CD6-BAAD-CF39661A7495}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{62672CC3-25AF-45D8-91CF-DEC3B3DCA2D4}"/>
+    <hyperlink ref="E12:E16" r:id="rId3" display="https://coursera.org/share/5631a803ab6306376ad8bb953022b556" xr:uid="{4E15E060-C43A-46C8-9F69-CEAF4E7738A7}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{6EEB24ED-88B9-4AA7-9D7F-728952AC8163}"/>
+    <hyperlink ref="E18:E26" r:id="rId5" display="https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab" xr:uid="{0649B334-0F4A-4B71-BCB7-25B134362088}"/>
+    <hyperlink ref="E27" r:id="rId6" xr:uid="{D0131883-6143-4F4C-B3A0-B31B6FD1F4A4}"/>
+    <hyperlink ref="E28:E30" r:id="rId7" display="https://coursera.org/share/bf11d01d4e9930f954943f6e188bbd47" xr:uid="{5C57D545-E45C-4446-B5D8-7D987D1813DE}"/>
+    <hyperlink ref="E31" r:id="rId8" xr:uid="{8AC5CB06-3AB5-4583-9A10-704DB6E18671}"/>
+    <hyperlink ref="E32:E38" r:id="rId9" display="https://coursera.org/share/188441016b9730162e5549c0fd136a0b" xr:uid="{9B023A3F-791A-43DE-8DDD-60714207B5FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId10"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
@@ -23373,7 +25427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
@@ -23404,16 +25458,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -23422,7 +25476,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -23464,12 +25518,12 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -23484,7 +25538,7 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" s="34">
         <v>44409</v>
@@ -23514,12 +25568,12 @@
         <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -23534,7 +25588,7 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H3" s="34">
         <v>44409</v>
@@ -23566,7 +25620,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -23581,7 +25635,7 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" s="34">
         <v>44409</v>
@@ -23613,7 +25667,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -23628,7 +25682,7 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="34">
         <v>44409</v>
@@ -23660,7 +25714,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -23675,7 +25729,7 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" s="34">
         <v>44409</v>
@@ -23722,7 +25776,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" s="34">
         <v>44409</v>
@@ -23769,7 +25823,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="34">
         <v>44409</v>
@@ -23807,11 +25861,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -23845,29 +25899,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="33">
         <v>2</v>
@@ -23879,7 +25933,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="33">
         <v>1</v>
@@ -23891,7 +25945,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="33">
         <v>1</v>
@@ -23917,7 +25971,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33">
@@ -23941,7 +25995,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33">
@@ -23953,7 +26007,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33">
@@ -23989,7 +26043,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="33">
         <v>1</v>
@@ -24025,7 +26079,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="33">
         <v>1</v>
@@ -24061,7 +26115,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="33">
         <v>1</v>
@@ -24097,7 +26151,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="33">
         <v>1</v>
@@ -24121,7 +26175,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="33">
         <v>1</v>
@@ -24133,7 +26187,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="33">
         <v>1</v>
@@ -24145,7 +26199,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="33">
         <v>1</v>
@@ -24253,7 +26307,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="33">
         <v>1</v>
@@ -24277,7 +26331,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="33">
         <v>20</v>

--- a/ResumeProjects/Certification Tracker Public.xlsx
+++ b/ResumeProjects/Certification Tracker Public.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/ResumeProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E213795-083C-4CDB-8B20-1AA3EF280032}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AEC42D-1778-43B0-98D8-0D6862667752}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="135" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$47</definedName>
     <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$40</definedName>
@@ -31,7 +28,7 @@
     <customWorkbookView name="Filter 1" guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,28 +43,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,13 +767,20 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1113,104 +1095,104 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
@@ -1225,106 +1207,106 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1333,99 +1315,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1467,6 +1408,51 @@
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -4927,21 +4913,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Coursera Transcripts"/>
-      <sheetName val="Specializations"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hamilton, Cole B MSG MIL USA TRADOC USAREC" refreshedDate="44650.745903240742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
@@ -6341,81 +6312,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y38" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="B1:Y38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y38">
     <sortCondition descending="1" ref="J1:J38"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="49"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="48"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="46"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="43"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="50"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="49"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="44"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="40">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="36">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="30"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B48:B55" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B48:B55" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="B48:B55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C48:C55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C48:C55" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="C48:C55" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D48:D56" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D48:D56" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="D48:D56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E48:F55" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E48:F55" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="E48:F55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Funding Source" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Funding Source" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6434,13 +6405,15 @@
     <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="4">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
-    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link"/>
+    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6452,8 +6425,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6471,8 +6444,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6697,11 +6670,11 @@
   </sheetPr>
   <dimension ref="B1:Y1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7761,7 +7734,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>56</v>
       </c>
@@ -23686,7 +23659,7 @@
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{B14308AF-B0FF-4947-92D6-E32A90BB46B2}">
+      <autoFilter ref="B2:S40" xr:uid="{1FF13F9F-F3C5-46DC-995E-6B9BC78C5E2C}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -23789,7 +23762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF8F63-B8B9-4625-999F-CA4AB410A71C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -23799,7 +23772,8 @@
     <col min="2" max="2" width="50.42578125" style="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="82"/>
+    <col min="5" max="5" width="59.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -23820,8 +23794,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="str" cm="1">
-        <f t="array" ref="A2">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A2" s="90" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -23833,11 +23807,15 @@
       <c r="D2" s="84">
         <v>100</v>
       </c>
+      <c r="E2" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="e" cm="1">
-        <f t="array" ref="A3">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A3" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>162</v>
@@ -23848,11 +23826,15 @@
       <c r="D3" s="84">
         <v>11.9</v>
       </c>
+      <c r="E3" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="e" cm="1">
-        <f t="array" ref="A4">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A4" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>163</v>
@@ -23863,11 +23845,15 @@
       <c r="D4" s="84">
         <v>14</v>
       </c>
+      <c r="E4" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="e" cm="1">
-        <f t="array" ref="A5">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A5" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>164</v>
@@ -23878,11 +23864,15 @@
       <c r="D5" s="84">
         <v>0</v>
       </c>
+      <c r="E5" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="e" cm="1">
-        <f t="array" ref="A6">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A6" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>165</v>
@@ -23893,10 +23883,14 @@
       <c r="D6" s="84">
         <v>36</v>
       </c>
+      <c r="E6" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="str" cm="1">
-        <f t="array" ref="A7">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A7" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B7" s="82" t="s">
@@ -23908,11 +23902,15 @@
       <c r="D7" s="84">
         <v>94.58</v>
       </c>
+      <c r="E7" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="e" cm="1">
-        <f t="array" ref="A8">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A8" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B8" s="82" t="s">
         <v>167</v>
@@ -23923,10 +23921,14 @@
       <c r="D8" s="84">
         <v>39.630000000000003</v>
       </c>
+      <c r="E8" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="str" cm="1">
-        <f t="array" ref="A9">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A9" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B9" s="82" t="s">
@@ -23938,10 +23940,14 @@
       <c r="D9" s="84">
         <v>91.71</v>
       </c>
+      <c r="E9" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="str" cm="1">
-        <f t="array" ref="A10">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A10" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B10" s="82" t="s">
@@ -23953,10 +23959,14 @@
       <c r="D10" s="84">
         <v>88.88</v>
       </c>
+      <c r="E10" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="str" cm="1">
-        <f t="array" ref="A11">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A11" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B11" s="82" t="s">
@@ -23968,11 +23978,15 @@
       <c r="D11" s="84">
         <v>97.61</v>
       </c>
+      <c r="E11" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="e" cm="1">
-        <f t="array" ref="A12">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A12" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B12" s="82" t="s">
         <v>171</v>
@@ -23983,11 +23997,15 @@
       <c r="D12" s="84">
         <v>9</v>
       </c>
+      <c r="E12" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="e" cm="1">
-        <f t="array" ref="A13">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A13" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B13" s="82" t="s">
         <v>172</v>
@@ -23998,11 +24016,15 @@
       <c r="D13" s="84">
         <v>0</v>
       </c>
+      <c r="E13" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="e" cm="1">
-        <f t="array" ref="A14">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="A14" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B14" s="82" t="s">
         <v>173</v>
@@ -24013,10 +24035,14 @@
       <c r="D14" s="84">
         <v>0</v>
       </c>
+      <c r="E14" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="str" cm="1">
-        <f t="array" ref="A15">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A15" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B15" s="82" t="s">
@@ -24028,10 +24054,14 @@
       <c r="D15" s="84">
         <v>91.38</v>
       </c>
+      <c r="E15" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="str" cm="1">
-        <f t="array" ref="A16">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="A16" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B16" s="82" t="s">
@@ -24043,10 +24073,14 @@
       <c r="D16" s="84">
         <v>83.91</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="str" cm="1">
-        <f t="array" ref="A17">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E16" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B17" s="82" t="s">
@@ -24058,10 +24092,14 @@
       <c r="D17" s="84">
         <v>87.63</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="str" cm="1">
-        <f t="array" ref="A18">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E17" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
       <c r="B18" s="82" t="s">
@@ -24073,10 +24111,14 @@
       <c r="D18" s="84">
         <v>93.81</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="str" cm="1">
-        <f t="array" ref="A19">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E18" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
       <c r="B19" s="82" t="s">
@@ -24088,10 +24130,14 @@
       <c r="D19" s="84">
         <v>92.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="str" cm="1">
-        <f t="array" ref="A20">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E19" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
       <c r="B20" s="82" t="s">
@@ -24103,11 +24149,15 @@
       <c r="D20" s="84">
         <v>94.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="e" cm="1">
-        <f t="array" ref="A21">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E20" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B21" s="82" t="s">
         <v>180</v>
@@ -24118,11 +24168,15 @@
       <c r="D21" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="e" cm="1">
-        <f t="array" ref="A22">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E21" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B22" s="82" t="s">
         <v>181</v>
@@ -24133,11 +24187,15 @@
       <c r="D22" s="84">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="e" cm="1">
-        <f t="array" ref="A23">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E22" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B23" s="82" t="s">
         <v>182</v>
@@ -24148,10 +24206,14 @@
       <c r="D23" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="str" cm="1">
-        <f t="array" ref="A24">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E23" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
       <c r="B24" s="82" t="s">
@@ -24163,10 +24225,14 @@
       <c r="D24" s="84">
         <v>92.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="str" cm="1">
-        <f t="array" ref="A25">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E24" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
       <c r="B25" s="82" t="s">
@@ -24178,11 +24244,15 @@
       <c r="D25" s="84">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="e" cm="1">
-        <f t="array" ref="A26">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E25" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B26" s="82" t="s">
         <v>185</v>
@@ -24193,10 +24263,14 @@
       <c r="D26" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="str" cm="1">
-        <f t="array" ref="A27">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E26" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
       <c r="B27" s="82" t="s">
@@ -24208,10 +24282,14 @@
       <c r="D27" s="84">
         <v>86.09</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="str" cm="1">
-        <f t="array" ref="A28">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E27" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B28" s="82" t="s">
@@ -24223,10 +24301,14 @@
       <c r="D28" s="84">
         <v>85.83</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="str" cm="1">
-        <f t="array" ref="A29">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E28" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B29" s="82" t="s">
@@ -24238,10 +24320,14 @@
       <c r="D29" s="84">
         <v>86.67</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="str" cm="1">
-        <f t="array" ref="A30">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E29" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B30" s="82" t="s">
@@ -24253,10 +24339,14 @@
       <c r="D30" s="84">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="str" cm="1">
-        <f t="array" ref="A31">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E30" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B31" s="82" t="s">
@@ -24268,10 +24358,14 @@
       <c r="D31" s="84">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="str" cm="1">
-        <f t="array" ref="A32">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E31" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B32" s="82" t="s">
@@ -24283,10 +24377,14 @@
       <c r="D32" s="84">
         <v>84.19</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="str" cm="1">
-        <f t="array" ref="A33">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E32" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B33" s="82" t="s">
@@ -24298,10 +24396,14 @@
       <c r="D33" s="84">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="str" cm="1">
-        <f t="array" ref="A34">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E33" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B34" s="82" t="s">
@@ -24313,10 +24415,14 @@
       <c r="D34" s="84">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="str" cm="1">
-        <f t="array" ref="A35">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E34" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B35" s="82" t="s">
@@ -24328,10 +24434,14 @@
       <c r="D35" s="84">
         <v>95.85</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="str" cm="1">
-        <f t="array" ref="A36">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E35" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
       <c r="B36" s="82" t="s">
@@ -24343,10 +24453,14 @@
       <c r="D36" s="84">
         <v>97.52</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="str" cm="1">
-        <f t="array" ref="A37">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E36" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
       <c r="B37" s="82" t="s">
@@ -24358,11 +24472,15 @@
       <c r="D37" s="84">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="e" cm="1">
-        <f t="array" ref="A38">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E37" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B38" s="82" t="s">
         <v>197</v>
@@ -24373,10 +24491,14 @@
       <c r="D38" s="84">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="str" cm="1">
-        <f t="array" ref="A39">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E38" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
       <c r="B39" s="82" t="s">
@@ -24388,11 +24510,15 @@
       <c r="D39" s="84">
         <v>87.83</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="e" cm="1">
-        <f t="array" ref="A40">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E39" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B40" s="82" t="s">
         <v>199</v>
@@ -24403,10 +24529,14 @@
       <c r="D40" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="str" cm="1">
-        <f t="array" ref="A41">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E40" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
       <c r="B41" s="82" t="s">
@@ -24418,10 +24548,14 @@
       <c r="D41" s="84">
         <v>83.17</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="82" t="str" cm="1">
-        <f t="array" ref="A42">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E41" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
       <c r="B42" s="82" t="s">
@@ -24433,11 +24567,15 @@
       <c r="D42" s="84">
         <v>85.83</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="e" cm="1">
-        <f t="array" ref="A43">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E42" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B43" s="82" t="s">
         <v>202</v>
@@ -24448,10 +24586,14 @@
       <c r="D43" s="84">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="str" cm="1">
-        <f t="array" ref="A44">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
+      <c r="E43" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
       <c r="B44" s="82" t="s">
@@ -24463,11 +24605,15 @@
       <c r="D44" s="84">
         <v>83.33</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="e" cm="1">
-        <f t="array" ref="A45">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E44" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B45" s="82" t="s">
         <v>204</v>
@@ -24478,11 +24624,15 @@
       <c r="D45" s="84">
         <v>70.38</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="e" cm="1">
-        <f t="array" ref="A46">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E45" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B46" s="82" t="s">
         <v>205</v>
@@ -24493,11 +24643,15 @@
       <c r="D46" s="84">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="82" t="e" cm="1">
-        <f t="array" ref="A47">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E46" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B47" s="82" t="s">
         <v>206</v>
@@ -24508,11 +24662,15 @@
       <c r="D47" s="84">
         <v>90.94</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="e" cm="1">
-        <f t="array" ref="A48">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E47" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B48" s="82" t="s">
         <v>207</v>
@@ -24523,11 +24681,15 @@
       <c r="D48" s="84">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="82" t="e" cm="1">
-        <f t="array" ref="A49">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E48" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B49" s="82" t="s">
         <v>208</v>
@@ -24538,11 +24700,15 @@
       <c r="D49" s="84">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82" t="e" cm="1">
-        <f t="array" ref="A50">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E49" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B50" s="82" t="s">
         <v>209</v>
@@ -24553,11 +24719,15 @@
       <c r="D50" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="82" t="e" cm="1">
-        <f t="array" ref="A51">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E50" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B51" s="82" t="s">
         <v>210</v>
@@ -24568,11 +24738,15 @@
       <c r="D51" s="84">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="82" t="e" cm="1">
-        <f t="array" ref="A52">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E51" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B52" s="82" t="s">
         <v>211</v>
@@ -24583,11 +24757,15 @@
       <c r="D52" s="84">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="82" t="e" cm="1">
-        <f t="array" ref="A53">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E52" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B53" s="82" t="s">
         <v>212</v>
@@ -24598,11 +24776,15 @@
       <c r="D53" s="84">
         <v>92.66</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82" t="e" cm="1">
-        <f t="array" ref="A54">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E53" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B54" s="82" t="s">
         <v>213</v>
@@ -24613,11 +24795,15 @@
       <c r="D54" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="e" cm="1">
-        <f t="array" ref="A55">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E54" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B55" s="82" t="s">
         <v>214</v>
@@ -24628,11 +24814,15 @@
       <c r="D55" s="84">
         <v>88.13</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="e" cm="1">
-        <f t="array" ref="A56">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E55" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B56" s="82" t="s">
         <v>215</v>
@@ -24643,11 +24833,15 @@
       <c r="D56" s="84">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="82" t="e" cm="1">
-        <f t="array" ref="A57">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E56" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B57" s="82" t="s">
         <v>216</v>
@@ -24658,11 +24852,15 @@
       <c r="D57" s="84">
         <v>90.89</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82" t="e" cm="1">
-        <f t="array" ref="A58">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E57" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B58" s="82" t="s">
         <v>217</v>
@@ -24673,11 +24871,15 @@
       <c r="D58" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="e" cm="1">
-        <f t="array" ref="A59">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], [1]!Specialization[[#All],[Course]], [1]!Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+      <c r="E58" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
+        <v>NaN</v>
       </c>
       <c r="B59" s="82" t="s">
         <v>218</v>
@@ -24687,6 +24889,10 @@
       </c>
       <c r="D59" s="84">
         <v>0</v>
+      </c>
+      <c r="E59" s="82" t="str">
+        <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
@@ -24702,7 +24908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07C6D5-189D-4DB4-B710-2C1606549B1C}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/ResumeProjects/Certification Tracker Public.xlsx
+++ b/ResumeProjects/Certification Tracker Public.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/ResumeProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AEC42D-1778-43B0-98D8-0D6862667752}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{CD7DBD02-D991-4084-A2B2-D0ADA809A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9640625-9DB7-4CBE-8C11-27197D42B1A3}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="135" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$47</definedName>
-    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Certifications!$B$1:$V$49</definedName>
+    <definedName name="Z_D93DE928_213C_42F0_8269_81D2DB45734D_.wvu.FilterData" localSheetId="0" hidden="1">Certifications!$B$1:$T$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="241">
   <si>
     <t>My Certifications</t>
   </si>
@@ -355,9 +355,6 @@
     <t xml:space="preserve">MBB Project </t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Data Camp</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
   </si>
   <si>
     <t>Enterprise Skills Initiative</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Additional Study Resource2</t>
@@ -759,6 +753,24 @@
   <si>
     <t>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</t>
   </si>
+  <si>
+    <t>GitHub Profile</t>
+  </si>
+  <si>
+    <t>CompTia</t>
+  </si>
+  <si>
+    <t>Data+</t>
+  </si>
+  <si>
+    <t>https://www.comptia.org/certifications/data</t>
+  </si>
+  <si>
+    <t>Project+</t>
+  </si>
+  <si>
+    <t>https://www.comptia.org/certifications/project</t>
+  </si>
 </sst>
 </file>
 
@@ -769,11 +781,18 @@
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,6 +948,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -944,36 +974,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1056,35 +1062,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1092,108 +1069,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1204,34 +1154,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,73 +1166,94 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1315,61 +1262,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A00CB34-810F-4CEF-8552-0AF3767F240B}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="52">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1449,106 +1548,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1610,36 +1619,6 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1709,36 +1688,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
@@ -1785,24 +1734,6 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3662,7 +3593,7 @@
         <c:idx val="53"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -6312,87 +6243,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y38" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
-  <autoFilter ref="B1:Y38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y38">
-    <sortCondition descending="1" ref="J1:J38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Certification_Table" displayName="Certification_Table" ref="B1:Y40" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+  <autoFilter ref="B1:Y40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Y40">
+    <sortCondition descending="1" ref="J1:J40"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="50"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="49"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="47"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="44"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="My Certifications" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concentration " dataDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Skill 1" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Skill 2" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization URL" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Type" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="START DATE" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FINISH DATE" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FINISH Date Goal" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ReCertification Date" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="% COMPLETE" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status" dataDxfId="35">
       <calculatedColumnFormula>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="URL" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Exam/Training Cost" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Exam Attempts" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Costs" dataDxfId="31">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="30"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Funding Source" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Additional Study Expenses" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Best Study Resource" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Personal Expenses " dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="NOTES" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Additional Study Resource" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Additional Study Resource2" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B48:B55" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="B48:B55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Membership_Table" displayName="Membership_Table" ref="B50:B57" totalsRowShown="0" headerRowDxfId="1" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="B50:B57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Memberships" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C48:C55" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="C48:C55" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Goals_Table" displayName="Goals_Table" ref="C50:C57" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="C50:C57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Goals" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D48:D56" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="D48:D56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resources_Table" displayName="Resources_Table" ref="D50:D58" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D50:D58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Resources" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="E48:F55" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="E48:F55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Funding Source" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EB406B1-D85A-4748-81CC-97C25AAD497E}" name="Courses" displayName="Courses" ref="A1:E59" totalsRowShown="0">
   <autoFilter ref="A1:E59" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
     <filterColumn colId="3">
@@ -6405,13 +6325,13 @@
     <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{F1F4E0AE-8CA7-4815-AA22-AA02BA859676}" name="Certificate Name" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{0AAAEE5B-79A7-48B0-AECF-46792A2284AB}" name="Course Name"/>
-    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{30E8AEE1-E9AB-40A3-83AA-F3A5425AE5D8}" name="Enrollment Date" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{56110A37-82C8-413C-BE81-142039D361C4}" name="Grade Achieved" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1B922B2F-0D5A-4D64-A91D-74864AE1FC6D}" name="Link" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6419,21 +6339,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A59D60FC-1232-4F93-8CF0-BFBE335BAE30}" name="Specialization" displayName="Specialization" ref="A1:E38" totalsRowShown="0">
   <autoFilter ref="A1:E38" xr:uid="{412E2EE3-B3A4-446B-82F0-D65A0E07D429}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{AEB58735-04A8-4F9A-8DC3-9DB361366AE1}" name="Index"/>
     <tableColumn id="1" xr3:uid="{E4257B0B-4A73-4B70-8BE8-53FCA145FC4B}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{128ADCBC-1A3C-480C-9082-186E68D91D38}" name="Course" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{67CF72A3-BAC4-41B2-9321-EE21D7883CE7}" name="Completion Date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{9A16478D-E50F-4A7E-85EA-7D92AB35E1DF}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:X8" totalsRowShown="0">
   <autoFilter ref="A1:X8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="24">
@@ -6444,8 +6364,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Skill 2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Organization URL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="START DATE" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="FINISH DATE" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="FINISH Date Goal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ReCertification Date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% COMPLETE"/>
@@ -6668,13 +6588,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y1006"/>
+  <dimension ref="B1:Y1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6704,420 +6624,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="45">
-        <v>44501</v>
-      </c>
-      <c r="J2" s="45">
-        <v>44693</v>
-      </c>
-      <c r="K2" s="45">
-        <v>44652</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="Y1" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="98">
+        <f>Q2*P2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="96"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+    </row>
+    <row r="3" spans="2:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="98">
+        <f>Q3*P3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="96"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+    </row>
+    <row r="4" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="30">
+        <v>44501</v>
+      </c>
+      <c r="J4" s="30">
+        <v>44693</v>
+      </c>
+      <c r="K4" s="30">
+        <v>44652</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P4" s="2">
         <v>300</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R2" s="2">
-        <f t="shared" ref="R2:R38" si="0">Q2*P2</f>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R40" si="0">Q4*P4</f>
         <v>300</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="2:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="59" t="s">
+      <c r="E5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="61">
+      <c r="G5" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="46">
         <v>44835</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J5" s="46">
         <v>44687</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K5" s="46">
         <v>44743</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="N3" s="63">
+      <c r="L5" s="46"/>
+      <c r="M5" s="47">
+        <v>1</v>
+      </c>
+      <c r="N5" s="48">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="64" t="str">
+        <v>1</v>
+      </c>
+      <c r="O5" s="49" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P5" s="50">
         <v>300</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="Q5" s="51">
         <v>1</v>
       </c>
-      <c r="R3" s="65">
+      <c r="R5" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="S5" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-    </row>
-    <row r="4" spans="2:25" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="T5" s="50"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+    </row>
+    <row r="6" spans="2:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D6" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="47" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="H6" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="30">
         <v>44618</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J6" s="30">
         <v>44660</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K6" s="30">
         <v>44682</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2">
-        <v>270</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="2:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="45">
-        <v>44646</v>
-      </c>
-      <c r="J5" s="45">
-        <v>44647</v>
-      </c>
-      <c r="K5" s="45">
-        <v>44647</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="45">
-        <v>44634</v>
-      </c>
-      <c r="J6" s="45">
-        <v>44645</v>
-      </c>
-      <c r="K6" s="45">
-        <v>44645</v>
-      </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46">
+      <c r="L6" s="30">
+        <v>45025</v>
+      </c>
+      <c r="M6" s="31">
         <v>1</v>
       </c>
       <c r="N6" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="73" t="s">
-        <v>132</v>
+      <c r="O6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="2">
-        <v>6000</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="5">
         <v>1</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>270</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="T6" s="2"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="3" t="s">
-        <v>133</v>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="X6" s="3"/>
-      <c r="Y6" s="74"/>
-    </row>
-    <row r="7" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="45">
-        <v>44593</v>
-      </c>
-      <c r="J7" s="45">
-        <v>44634</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="30">
+        <v>44646</v>
+      </c>
+      <c r="J7" s="30">
+        <v>44647</v>
+      </c>
+      <c r="K7" s="30">
+        <v>44647</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31">
         <v>1</v>
       </c>
       <c r="N7" s="3">
@@ -7125,293 +7005,301 @@
         <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P7" s="2">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="5">
         <v>1</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43" t="s">
-        <v>81</v>
-      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="50" t="s">
+    <row r="8" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="45">
-        <v>44614</v>
-      </c>
-      <c r="J8" s="45">
-        <v>44615</v>
-      </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46">
+      <c r="C8" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="30">
+        <v>44634</v>
+      </c>
+      <c r="J8" s="30">
+        <v>44645</v>
+      </c>
+      <c r="K8" s="30">
+        <v>44645</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31">
         <v>1</v>
       </c>
       <c r="N8" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="47" t="s">
-        <v>79</v>
+      <c r="O8" s="58" t="s">
+        <v>130</v>
       </c>
       <c r="P8" s="2">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="Q8" s="5">
         <v>1</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
       <c r="U8" s="3"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="59"/>
     </row>
     <row r="9" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="45">
-        <v>44613</v>
-      </c>
-      <c r="J9" s="45">
-        <v>44614</v>
-      </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46">
+      <c r="B9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="30">
+        <v>44593</v>
+      </c>
+      <c r="J9" s="30">
+        <v>44634</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31">
         <v>1</v>
       </c>
       <c r="N9" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="47" t="s">
-        <v>77</v>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P9" s="2">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="5">
         <v>1</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="45">
-        <v>44571</v>
-      </c>
-      <c r="J10" s="45">
-        <v>44611</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45">
-        <v>44976</v>
-      </c>
-      <c r="M10" s="46">
+      <c r="B10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="30">
+        <v>44614</v>
+      </c>
+      <c r="J10" s="30">
+        <v>44615</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31">
         <v>1</v>
       </c>
       <c r="N10" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>74</v>
+      <c r="O10" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="P10" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="45">
-        <v>44409</v>
-      </c>
-      <c r="J11" s="45">
-        <v>44598</v>
-      </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46">
+      <c r="B11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="30">
+        <v>44613</v>
+      </c>
+      <c r="J11" s="30">
+        <v>44614</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31">
         <v>1</v>
       </c>
       <c r="N11" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>49</v>
+      <c r="O11" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="45">
-        <v>44409</v>
-      </c>
-      <c r="J12" s="45">
-        <v>44598</v>
-      </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="46">
+      <c r="B12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="30">
+        <v>44571</v>
+      </c>
+      <c r="J12" s="30">
+        <v>44611</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30">
+        <v>44976</v>
+      </c>
+      <c r="M12" s="31">
         <v>1</v>
       </c>
       <c r="N12" s="3">
@@ -7419,64 +7307,64 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="43" t="s">
+    <row r="13" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="45">
+      <c r="H13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="30">
         <v>44409</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="30">
         <v>44598</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="46">
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31">
         <v>1</v>
       </c>
       <c r="N13" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="16" t="s">
         <v>49</v>
       </c>
       <c r="P13" s="2">
@@ -7494,40 +7382,40 @@
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="43" t="s">
+    <row r="14" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="45">
+      <c r="H14" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="30">
         <v>44409</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="30">
         <v>44598</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46">
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31">
         <v>1</v>
       </c>
       <c r="N14" s="3">
@@ -7552,42 +7440,40 @@
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="45">
-        <v>44577</v>
-      </c>
-      <c r="J15" s="45">
-        <v>44592</v>
-      </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45">
-        <v>45808</v>
-      </c>
-      <c r="M15" s="46">
+    <row r="15" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="30">
+        <v>44409</v>
+      </c>
+      <c r="J15" s="30">
+        <v>44598</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31">
         <v>1</v>
       </c>
       <c r="N15" s="3">
@@ -7595,185 +7481,184 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P15" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="45">
-        <v>44470</v>
-      </c>
-      <c r="J16" s="45">
-        <v>44577</v>
-      </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46">
+    <row r="16" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="30">
+        <v>44409</v>
+      </c>
+      <c r="J16" s="30">
+        <v>44598</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31">
         <v>1</v>
       </c>
       <c r="N16" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="48" t="str">
-        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
+      <c r="O16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="P16" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
         <v>1</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="45">
-        <v>44501</v>
-      </c>
-      <c r="J17" s="45">
-        <v>44571</v>
-      </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46">
+      <c r="B17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="30">
+        <v>44577</v>
+      </c>
+      <c r="J17" s="30">
+        <v>44592</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30">
+        <v>45808</v>
+      </c>
+      <c r="M17" s="31">
         <v>1</v>
       </c>
       <c r="N17" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O17" s="81" t="s">
-        <v>62</v>
+      <c r="O17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P17" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="5">
         <v>1</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="2:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="43" t="s">
+    <row r="18" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="47" t="s">
+      <c r="E18" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="45">
+      <c r="H18" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="30">
         <v>44470</v>
       </c>
-      <c r="J18" s="45">
-        <v>44559</v>
-      </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46">
+      <c r="J18" s="30">
+        <v>44577</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31">
         <v>1</v>
       </c>
       <c r="N18" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O18" s="1" t="str">
+      <c r="O18" s="33" t="str">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
-        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
+        <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
       <c r="P18" s="2">
         <v>300</v>
@@ -7790,160 +7675,159 @@
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="45">
-        <v>44409</v>
-      </c>
-      <c r="J19" s="45">
-        <v>44496</v>
-      </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46">
+    <row r="19" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="30">
+        <v>44501</v>
+      </c>
+      <c r="J19" s="30">
+        <v>44571</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31">
         <v>1</v>
       </c>
       <c r="N19" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>49</v>
+      <c r="O19" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Q19" s="5">
         <v>1</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="59" t="s">
+    <row r="20" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="45">
-        <f>J20-45</f>
-        <v>44448</v>
-      </c>
-      <c r="J20" s="45">
-        <v>44493</v>
-      </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45">
-        <v>45224</v>
-      </c>
-      <c r="M20" s="46">
+      <c r="E20" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="30">
+        <v>44470</v>
+      </c>
+      <c r="J20" s="30">
+        <v>44559</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31">
         <v>1</v>
       </c>
       <c r="N20" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>30</v>
+      <c r="O20" s="1" t="str">
+        <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
+        <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
       <c r="P20" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="45">
-        <f>J21-7</f>
-        <v>44480</v>
-      </c>
-      <c r="J21" s="45">
-        <v>44487</v>
-      </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46">
+    <row r="21" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="30">
+        <v>44409</v>
+      </c>
+      <c r="J21" s="30">
+        <v>44496</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31">
         <v>1</v>
       </c>
       <c r="N21" s="3">
@@ -7951,57 +7835,60 @@
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P21" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
         <v>1</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="45">
-        <v>44409</v>
-      </c>
-      <c r="J22" s="45">
-        <v>44486</v>
-      </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46">
+      <c r="B22" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="30">
+        <f>J22-45</f>
+        <v>44448</v>
+      </c>
+      <c r="J22" s="30">
+        <v>44493</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30">
+        <v>45224</v>
+      </c>
+      <c r="M22" s="31">
         <v>1</v>
       </c>
       <c r="N22" s="3">
@@ -8009,59 +7896,58 @@
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="47" t="s">
+      <c r="D23" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="45">
-        <v>44476</v>
-      </c>
-      <c r="J23" s="45">
-        <v>44476</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45">
-        <v>44841</v>
-      </c>
-      <c r="M23" s="46">
+      <c r="H23" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="30">
+        <f>J23-7</f>
+        <v>44480</v>
+      </c>
+      <c r="J23" s="30">
+        <v>44487</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31">
         <v>1</v>
       </c>
       <c r="N23" s="3">
@@ -8072,55 +7958,54 @@
         <v>30</v>
       </c>
       <c r="P23" s="2">
-        <v>800</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="5">
         <v>1</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>99</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="45">
-        <f>J24-7</f>
-        <v>44466</v>
-      </c>
-      <c r="J24" s="45">
-        <v>44473</v>
-      </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="46">
+      <c r="B24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="30">
+        <v>44409</v>
+      </c>
+      <c r="J24" s="30">
+        <v>44486</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31">
         <v>1</v>
       </c>
       <c r="N24" s="3">
@@ -8128,57 +8013,59 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P24" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="5">
         <v>1</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="45">
-        <v>44409</v>
-      </c>
-      <c r="J25" s="45">
-        <v>44472</v>
-      </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46">
+    <row r="25" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="30">
+        <v>44476</v>
+      </c>
+      <c r="J25" s="30">
+        <v>44476</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30">
+        <v>44841</v>
+      </c>
+      <c r="M25" s="31">
         <v>1</v>
       </c>
       <c r="N25" s="3">
@@ -8186,118 +8073,116 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P25" s="2">
-        <v>199</v>
+        <v>800</v>
       </c>
       <c r="Q25" s="5">
         <v>1</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>800</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="45">
-        <v>44409</v>
-      </c>
-      <c r="J26" s="45">
-        <v>44472</v>
-      </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46">
+    <row r="26" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="30">
+        <f>J26-7</f>
+        <v>44466</v>
+      </c>
+      <c r="J26" s="30">
+        <v>44473</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31">
         <v>1</v>
       </c>
       <c r="N26" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O26" s="48" t="s">
-        <v>38</v>
+      <c r="O26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="P26" s="2">
-        <v>500</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="5">
         <v>1</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>99</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="45">
-        <f>J27-45</f>
-        <v>44407</v>
-      </c>
-      <c r="J27" s="45">
-        <v>44452</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45">
-        <v>45182</v>
-      </c>
-      <c r="M27" s="46">
+    <row r="27" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="30">
+        <v>44409</v>
+      </c>
+      <c r="J27" s="30">
+        <v>44472</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31">
         <v>1</v>
       </c>
       <c r="N27" s="3">
@@ -8305,117 +8190,118 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P27" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>199</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="45">
+    <row r="28" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="30">
         <v>44409</v>
       </c>
-      <c r="J28" s="45">
-        <v>44429</v>
-      </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="46">
+      <c r="J28" s="30">
+        <v>44472</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31">
         <v>1</v>
       </c>
       <c r="N28" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="O28" s="17" t="s">
-        <v>30</v>
+      <c r="O28" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="P28" s="2">
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="45">
-        <v>44256</v>
-      </c>
-      <c r="J29" s="45">
-        <v>44375</v>
-      </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45">
-        <v>45808</v>
-      </c>
-      <c r="M29" s="46">
+      <c r="B29" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="30">
+        <f>J29-45</f>
+        <v>44407</v>
+      </c>
+      <c r="J29" s="30">
+        <v>44452</v>
+      </c>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30">
+        <v>45182</v>
+      </c>
+      <c r="M29" s="31">
         <v>1</v>
       </c>
       <c r="N29" s="3">
@@ -8423,613 +8309,685 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P29" s="2">
-        <v>4000</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>480</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T29" s="2"/>
-      <c r="U29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="45">
-        <v>44531</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45">
-        <v>44774</v>
-      </c>
-      <c r="L30" s="45"/>
-      <c r="M30" s="46">
-        <v>0</v>
+      <c r="B30" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="30">
+        <v>44409</v>
+      </c>
+      <c r="J30" s="30">
+        <v>44429</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31">
+        <v>1</v>
       </c>
       <c r="N30" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="P30" s="2">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>99</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="2">
-        <v>150</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T30" s="2"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="X30" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y30" s="52" t="s">
-        <v>86</v>
-      </c>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="57">
-        <v>44531</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58">
-        <v>0</v>
+      <c r="B31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="30">
+        <v>44256</v>
+      </c>
+      <c r="J31" s="30">
+        <v>44375</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30">
+        <v>45808</v>
+      </c>
+      <c r="M31" s="31">
+        <v>1</v>
       </c>
       <c r="N31" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="30">
+        <v>44531</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30">
+        <v>44774</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31">
         <v>0</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="N32" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>2</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="2">
+        <v>150</v>
+      </c>
+      <c r="U32" s="3"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="X32" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y32" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="42">
+        <v>44531</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P33" s="14">
         <v>2000</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q33" s="15">
         <v>1</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R33" s="14">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="S31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" ht="90" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="57">
-        <v>44618</v>
-      </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57">
-        <v>44666</v>
-      </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="58">
-        <v>0</v>
-      </c>
-      <c r="N32" s="12">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="P32" s="14">
-        <v>500</v>
-      </c>
-      <c r="Q32" s="15">
-        <v>1</v>
-      </c>
-      <c r="R32" s="14">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T32" s="14"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-    </row>
-    <row r="33" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="57">
-        <v>44562</v>
-      </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57">
-        <v>44866</v>
-      </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12">
-        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P33" s="14">
-        <v>300</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>1</v>
-      </c>
-      <c r="R33" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
       <c r="S33" s="12" t="s">
         <v>39</v>
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="2:25" ht="90" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="57">
-        <v>44531</v>
-      </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57">
-        <v>44896</v>
-      </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58">
+      <c r="B34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="42">
+        <v>44618</v>
+      </c>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42">
+        <v>44666</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43">
         <v>0</v>
       </c>
       <c r="N34" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="13" t="s">
-        <v>74</v>
+      <c r="O34" s="64" t="s">
+        <v>91</v>
       </c>
       <c r="P34" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q34" s="15">
         <v>1</v>
       </c>
       <c r="R34" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S34" s="12" t="s">
         <v>39</v>
       </c>
       <c r="T34" s="14"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54" t="s">
-        <v>97</v>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="57">
-        <v>44571</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57">
-        <v>45047</v>
-      </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="58">
+    <row r="35" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="42">
+        <v>44562</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42">
+        <v>44866</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="43">
         <v>0</v>
       </c>
       <c r="N35" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="13"/>
+      <c r="O35" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P35" s="14">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="T35" s="14"/>
       <c r="U35" s="12"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="2:25" ht="150" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="61">
-        <v>44844</v>
-      </c>
-      <c r="J36" s="61"/>
-      <c r="K36" s="78">
+    <row r="36" spans="2:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="B36" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="42">
+        <v>44531</v>
+      </c>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42">
         <v>44896</v>
       </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="62">
+      <c r="L36" s="42"/>
+      <c r="M36" s="43">
         <v>0</v>
       </c>
-      <c r="N36" s="63">
+      <c r="N36" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="64">
+      <c r="O36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" s="14">
+        <v>300</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>1</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36" s="14"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+    </row>
+    <row r="37" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="42">
+        <v>44571</v>
+      </c>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42">
+        <v>45047</v>
+      </c>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43">
+        <v>0</v>
+      </c>
+      <c r="N37" s="12">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="14">
+        <v>750</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>2</v>
+      </c>
+      <c r="R37" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37" s="14"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+    </row>
+    <row r="38" spans="2:25" ht="150" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="46">
+        <v>44844</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="63">
+        <v>44896</v>
+      </c>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47">
+        <v>0</v>
+      </c>
+      <c r="N38" s="48">
+        <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="49">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="65">
+      <c r="P38" s="50">
         <v>300</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="Q38" s="51">
         <v>1</v>
       </c>
-      <c r="R36" s="65">
+      <c r="R38" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S36" s="63" t="s">
+      <c r="S38" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="T36" s="65"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-    </row>
-    <row r="37" spans="2:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="43" t="s">
+      <c r="T38" s="50"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+    </row>
+    <row r="39" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="B39" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D39" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="45">
+      <c r="E39" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="30">
         <v>44531</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="57">
+      <c r="J39" s="30"/>
+      <c r="K39" s="42">
         <v>44713</v>
       </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="46">
+      <c r="L39" s="30"/>
+      <c r="M39" s="31">
         <v>0.25</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N39" s="3">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O39" s="1">
         <f>_xlfn.XLOOKUP(Certification_Table[[#This Row],[My Certifications]], Specialization[Specialization], Specialization[Link], 0)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P39" s="2">
         <v>300</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q39" s="5">
         <v>1</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R39" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T37" s="2"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="T39" s="2"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C40" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D40" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="75" t="s">
+      <c r="F40" s="53"/>
+      <c r="G40" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="57">
+      <c r="H40" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="42">
         <v>44409</v>
       </c>
-      <c r="J38" s="57"/>
-      <c r="K38" s="77">
+      <c r="J40" s="42"/>
+      <c r="K40" s="62">
         <v>44774</v>
       </c>
-      <c r="L38" s="57"/>
-      <c r="M38" s="58">
+      <c r="L40" s="42"/>
+      <c r="M40" s="43">
         <v>0.75</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N40" s="12">
         <f>--(Certification_Table[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="O40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P40" s="14">
         <v>49</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q40" s="15">
         <v>1</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R40" s="14">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S40" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54" t="s">
+      <c r="T40" s="14"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-    </row>
-    <row r="39" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-    </row>
-    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
     </row>
     <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
@@ -9067,8 +9025,8 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="7"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="6"/>
@@ -9090,8 +9048,8 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="7"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="6"/>
@@ -9106,7 +9064,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -9129,7 +9087,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -9148,6 +9106,7 @@
     </row>
     <row r="46" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -9170,6 +9129,7 @@
     </row>
     <row r="47" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -9191,83 +9151,61 @@
       <c r="V47" s="6"/>
     </row>
     <row r="48" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="7"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-    </row>
-    <row r="49" spans="2:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Proponent Funded")</f>
-        <v>Proponent Funded</v>
-      </c>
-      <c r="F49" s="29">
-        <f ca="1">SUMIF(S1:S30, E49, R1:R30)</f>
-        <v>10000</v>
-      </c>
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="7"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-    </row>
-    <row r="50" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESI")</f>
-        <v>ESI</v>
-      </c>
-      <c r="F50" s="35">
-        <f ca="1">SUMIF(S2:S38, E50, R2:R38)</f>
-        <v>2156</v>
-      </c>
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="7"/>
@@ -9281,169 +9219,161 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
+    <row r="51" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="78"/>
+      <c r="F51" s="79"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="78"/>
+      <c r="F52" s="80"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ArmyIgnited")</f>
-        <v>ArmyIgnited</v>
-      </c>
-      <c r="F51" s="29">
-        <f ca="1">SUMIF(R3:R33, E51, Q3:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="19" t="s">
+      <c r="C53" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Self")</f>
-        <v>Self</v>
-      </c>
-      <c r="F52" s="29">
-        <f ca="1">SUMIF(R4:R36, E52, Q4:Q38)</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vetjobs")</f>
-        <v>Vetjobs</v>
-      </c>
-      <c r="F53" s="29" t="e">
-        <f ca="1">SUMIF(R5:R38, E53, O5:O39)+S36</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
       <c r="L53" s="10"/>
       <c r="M53" s="11"/>
       <c r="N53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="27" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unit")</f>
-        <v>Unit</v>
-      </c>
-      <c r="F54" s="29">
-        <f ca="1">SUMIF(P6:P39, E54, O6:O40)</f>
-        <v>0</v>
-      </c>
+    <row r="54" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="78"/>
+      <c r="F54" s="79"/>
       <c r="L54" s="10"/>
       <c r="M54" s="11"/>
       <c r="N54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="31" t="e">
-        <f ca="1">SUM(F49:F54)</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="55" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
       <c r="L55" s="10"/>
       <c r="M55" s="11"/>
       <c r="N55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="23"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+    <row r="56" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
       <c r="L56" s="10"/>
       <c r="M56" s="11"/>
       <c r="N56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+    <row r="57" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="81"/>
+      <c r="F57" s="79"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="10"/>
+      <c r="P57" s="10"/>
+    </row>
+    <row r="58" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="83"/>
       <c r="G58" s="9"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="10"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="10"/>
+      <c r="P58" s="10"/>
+    </row>
+    <row r="59" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
       <c r="G59" s="9"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -9453,7 +9383,7 @@
       <c r="O59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -9468,7 +9398,7 @@
       <c r="O60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -9483,7 +9413,7 @@
       <c r="O61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -9498,7 +9428,7 @@
       <c r="O62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -9513,7 +9443,7 @@
       <c r="O63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -23649,17 +23579,47 @@
       <c r="D1006" s="6"/>
       <c r="E1006" s="6"/>
       <c r="F1006" s="6"/>
+      <c r="G1006" s="9"/>
+      <c r="H1006" s="6"/>
+      <c r="I1006" s="6"/>
       <c r="J1006" s="6"/>
       <c r="M1006" s="10"/>
       <c r="N1006" s="11"/>
       <c r="O1006" s="10"/>
       <c r="Q1006" s="10"/>
     </row>
+    <row r="1007" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1007" s="6"/>
+      <c r="C1007" s="6"/>
+      <c r="D1007" s="6"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="6"/>
+      <c r="G1007" s="9"/>
+      <c r="H1007" s="6"/>
+      <c r="I1007" s="6"/>
+      <c r="J1007" s="6"/>
+      <c r="M1007" s="10"/>
+      <c r="N1007" s="11"/>
+      <c r="O1007" s="10"/>
+      <c r="Q1007" s="10"/>
+    </row>
+    <row r="1008" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1008" s="6"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+      <c r="J1008" s="6"/>
+      <c r="M1008" s="10"/>
+      <c r="N1008" s="11"/>
+      <c r="O1008" s="10"/>
+      <c r="Q1008" s="10"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D93DE928-213C-42F0-8269-81D2DB45734D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B2:S40" xr:uid="{1FF13F9F-F3C5-46DC-995E-6B9BC78C5E2C}">
+      <autoFilter ref="B2:S40" xr:uid="{65DC9D58-D600-466F-8908-A72903AC6DE4}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S40">
           <sortCondition ref="C2:C40"/>
         </sortState>
@@ -23667,93 +23627,94 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L32 M2:M38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="L34 M2:M40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.0,0.25,0.5,0.75,1.0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G13" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G14" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O14" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G10" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O10" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G9" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O9" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G8" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O8" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="O7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G4" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="O30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y30" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G31" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O31" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Y31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G32" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G33" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D49" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D50" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D51" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D52" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D53" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D54" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D55" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G17" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G6" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O6" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G36" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="U31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O21" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O13" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G14" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O14" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O16" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G12" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G11" r:id="rId39" location="overview" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O11" r:id="rId40" location="overview" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G10" r:id="rId41" location="overview" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O10" r:id="rId42" location="overview" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G9" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O9" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O6" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G32" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O32" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X32" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G33" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O33" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Y33" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O34" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G40" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G35" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D51" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D52" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D54" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D55" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D56" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D57" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G19" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G8" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O8" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G2" r:id="rId73" xr:uid="{E8B3F091-879D-4CE6-842A-EFB6B61DD5E6}"/>
+    <hyperlink ref="G3" r:id="rId74" xr:uid="{85EF8FC0-F533-4EE9-801B-7090CB5F1728}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId73"/>
-  <tableParts count="5">
-    <tablePart r:id="rId74"/>
-    <tablePart r:id="rId75"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId75"/>
+  <tableParts count="4">
     <tablePart r:id="rId76"/>
     <tablePart r:id="rId77"/>
     <tablePart r:id="rId78"/>
+    <tablePart r:id="rId79"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23762,1135 +23723,1135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF8F63-B8B9-4625-999F-CA4AB410A71C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="82"/>
+    <col min="1" max="1" width="26.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="D1" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="E1" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="75" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="83">
+      <c r="B2" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="68">
         <v>44558</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="69">
         <v>100</v>
       </c>
-      <c r="E2" s="82" t="str">
+      <c r="E2" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="str">
+      <c r="A3" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="83">
+      <c r="B3" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="68">
         <v>44640</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="69">
         <v>11.9</v>
       </c>
-      <c r="E3" s="82" t="str">
+      <c r="E3" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="str">
+      <c r="A4" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="83">
+      <c r="B4" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="68">
         <v>44624</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="69">
         <v>14</v>
       </c>
-      <c r="E4" s="82" t="str">
+      <c r="E4" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="str">
+      <c r="A5" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="83">
+      <c r="B5" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="68">
         <v>44616</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="69">
         <v>0</v>
       </c>
-      <c r="E5" s="82" t="str">
+      <c r="E5" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="str">
+      <c r="A6" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="83">
+      <c r="B6" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="68">
         <v>44578</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="69">
         <v>36</v>
       </c>
-      <c r="E6" s="82" t="str">
+      <c r="E6" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="str">
+      <c r="A7" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="83">
+      <c r="B7" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="68">
         <v>44556</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="69">
         <v>94.58</v>
       </c>
-      <c r="E7" s="82" t="str">
+      <c r="E7" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="str">
+      <c r="A8" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="83">
+      <c r="B8" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="68">
         <v>44697</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="69">
         <v>39.630000000000003</v>
       </c>
-      <c r="E8" s="82" t="str">
+      <c r="E8" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="str">
+      <c r="A9" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="83">
+      <c r="B9" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="68">
         <v>44528</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="69">
         <v>91.71</v>
       </c>
-      <c r="E9" s="82" t="str">
+      <c r="E9" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="str">
+      <c r="A10" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B10" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="83">
+      <c r="B10" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="68">
         <v>44515</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="69">
         <v>88.88</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="str">
+      <c r="A11" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="B11" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="68">
         <v>44514</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="69">
         <v>97.61</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="str">
+      <c r="A12" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B12" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="83">
+      <c r="B12" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="68">
         <v>44503</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="69">
         <v>9</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="str">
+      <c r="A13" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="83">
+      <c r="B13" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="68">
         <v>44682</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="69">
         <v>0</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="str">
+      <c r="A14" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="83">
+      <c r="B14" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="68">
         <v>44700</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="69">
         <v>0</v>
       </c>
-      <c r="E14" s="82" t="str">
+      <c r="E14" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="str">
+      <c r="A15" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B15" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="83">
+      <c r="B15" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="68">
         <v>44513</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="69">
         <v>91.38</v>
       </c>
-      <c r="E15" s="82" t="str">
+      <c r="E15" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="str">
+      <c r="A16" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B16" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="83">
+      <c r="B16" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="68">
         <v>44501</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="69">
         <v>83.91</v>
       </c>
-      <c r="E16" s="82" t="str">
+      <c r="E16" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="str">
+      <c r="A17" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Data Analytics</v>
       </c>
-      <c r="B17" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="83">
+      <c r="B17" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="68">
         <v>44501</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="69">
         <v>87.63</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/188441016b9730162e5549c0fd136a0b</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="str">
+      <c r="A18" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B18" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="83">
+      <c r="B18" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="68">
         <v>44626</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="69">
         <v>93.81</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="str">
+      <c r="A19" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="83">
+      <c r="B19" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="68">
         <v>44624</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="69">
         <v>92.52</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="str">
+      <c r="A20" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="83">
+      <c r="B20" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="68">
         <v>44611</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="69">
         <v>94.13</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="str">
+      <c r="A21" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B21" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="83">
+      <c r="B21" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="68">
         <v>44689</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="69">
         <v>0</v>
       </c>
-      <c r="E21" s="82" t="str">
+      <c r="E21" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="str">
+      <c r="A22" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B22" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="83">
+      <c r="B22" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="68">
         <v>44488</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="69">
         <v>16</v>
       </c>
-      <c r="E22" s="82" t="str">
+      <c r="E22" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="str">
+      <c r="A23" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B23" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="83">
+      <c r="B23" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="68">
         <v>44557</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="69">
         <v>0</v>
       </c>
-      <c r="E23" s="82" t="str">
+      <c r="E23" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="str">
+      <c r="A24" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B24" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="83">
+      <c r="B24" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="68">
         <v>44576</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="69">
         <v>92.69</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="str">
+      <c r="A25" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B25" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="83">
+      <c r="B25" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="68">
         <v>44518</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="69">
         <v>94.6</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="str">
+      <c r="A26" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B26" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="83">
+      <c r="B26" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="68">
         <v>44668</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="69">
         <v>0</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="str">
+      <c r="A27" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>Google Project Management</v>
       </c>
-      <c r="B27" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="83">
+      <c r="B27" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="68">
         <v>44518</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="69">
         <v>86.09</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/5631a803ab6306376ad8bb953022b556</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="str">
+      <c r="A28" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B28" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="83">
+      <c r="B28" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="68">
         <v>44562</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="69">
         <v>85.83</v>
       </c>
-      <c r="E28" s="82" t="str">
+      <c r="E28" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="83">
+      <c r="B29" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="68">
         <v>44562</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="69">
         <v>86.67</v>
       </c>
-      <c r="E29" s="82" t="str">
+      <c r="E29" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="str">
+      <c r="A30" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="83">
+      <c r="B30" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="68">
         <v>44560</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="69">
         <v>95</v>
       </c>
-      <c r="E30" s="82" t="str">
+      <c r="E30" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="str">
+      <c r="A31" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B31" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="83">
+      <c r="B31" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="68">
         <v>44560</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="69">
         <v>82</v>
       </c>
-      <c r="E31" s="82" t="str">
+      <c r="E31" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="str">
+      <c r="A32" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="83">
+      <c r="B32" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="68">
         <v>44517</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="69">
         <v>84.19</v>
       </c>
-      <c r="E32" s="82" t="str">
+      <c r="E32" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="str">
+      <c r="A33" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B33" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="83">
+      <c r="B33" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="68">
         <v>44515</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="69">
         <v>83.6</v>
       </c>
-      <c r="E33" s="82" t="str">
+      <c r="E33" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="str">
+      <c r="A34" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B34" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="83">
+      <c r="B34" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="68">
         <v>44513</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="69">
         <v>95</v>
       </c>
-      <c r="E34" s="82" t="str">
+      <c r="E34" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="str">
+      <c r="A35" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B35" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="83">
+      <c r="B35" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="68">
         <v>44512</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="69">
         <v>95.85</v>
       </c>
-      <c r="E35" s="82" t="str">
+      <c r="E35" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="str">
+      <c r="A36" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Analyst</v>
       </c>
-      <c r="B36" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="83">
+      <c r="B36" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="68">
         <v>44512</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="69">
         <v>97.52</v>
       </c>
-      <c r="E36" s="82" t="str">
+      <c r="E36" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="str">
+      <c r="A37" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B37" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="83">
+      <c r="B37" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="68">
         <v>44608</v>
       </c>
-      <c r="D37" s="84">
+      <c r="D37" s="69">
         <v>81.5</v>
       </c>
-      <c r="E37" s="82" t="str">
+      <c r="E37" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="str">
+      <c r="A38" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B38" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="83">
+      <c r="B38" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="68">
         <v>44583</v>
       </c>
-      <c r="D38" s="84">
+      <c r="D38" s="69">
         <v>8</v>
       </c>
-      <c r="E38" s="82" t="str">
+      <c r="E38" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="str">
+      <c r="A39" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B39" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="83">
+      <c r="B39" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="68">
         <v>44608</v>
       </c>
-      <c r="D39" s="84">
+      <c r="D39" s="69">
         <v>87.83</v>
       </c>
-      <c r="E39" s="82" t="str">
+      <c r="E39" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="str">
+      <c r="A40" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B40" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="83">
+      <c r="B40" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="68">
         <v>44582</v>
       </c>
-      <c r="D40" s="84">
+      <c r="D40" s="69">
         <v>0</v>
       </c>
-      <c r="E40" s="82" t="str">
+      <c r="E40" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="str">
+      <c r="A41" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B41" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="83">
+      <c r="B41" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="68">
         <v>44577</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="69">
         <v>83.17</v>
       </c>
-      <c r="E41" s="82" t="str">
+      <c r="E41" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="82" t="str">
+      <c r="A42" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B42" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42" s="83">
+      <c r="B42" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="68">
         <v>44570</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="69">
         <v>85.83</v>
       </c>
-      <c r="E42" s="82" t="str">
+      <c r="E42" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="str">
+      <c r="A43" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B43" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="83">
+      <c r="B43" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="68">
         <v>44705</v>
       </c>
-      <c r="D43" s="84">
+      <c r="D43" s="69">
         <v>50</v>
       </c>
-      <c r="E43" s="82" t="str">
+      <c r="E43" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="str">
+      <c r="A44" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>IBM Data Science</v>
       </c>
-      <c r="B44" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="83">
+      <c r="B44" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="68">
         <v>44522</v>
       </c>
-      <c r="D44" s="84">
+      <c r="D44" s="69">
         <v>83.33</v>
       </c>
-      <c r="E44" s="82" t="str">
+      <c r="E44" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>https://coursera.org/share/e229e6f9bf3781bc463f243f4d4306ab</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="str">
+      <c r="A45" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B45" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="83">
+      <c r="B45" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="68">
         <v>44701</v>
       </c>
-      <c r="D45" s="84">
+      <c r="D45" s="69">
         <v>70.38</v>
       </c>
-      <c r="E45" s="82" t="str">
+      <c r="E45" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="str">
+      <c r="A46" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B46" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="83">
+      <c r="B46" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="68">
         <v>44494</v>
       </c>
-      <c r="D46" s="84">
+      <c r="D46" s="69">
         <v>5</v>
       </c>
-      <c r="E46" s="82" t="str">
+      <c r="E46" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="82" t="str">
+      <c r="A47" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B47" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="83">
+      <c r="B47" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="68">
         <v>44700</v>
       </c>
-      <c r="D47" s="84">
+      <c r="D47" s="69">
         <v>90.94</v>
       </c>
-      <c r="E47" s="82" t="str">
+      <c r="E47" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="str">
+      <c r="A48" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B48" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="83">
+      <c r="B48" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="68">
         <v>44680</v>
       </c>
-      <c r="D48" s="84">
+      <c r="D48" s="69">
         <v>82.5</v>
       </c>
-      <c r="E48" s="82" t="str">
+      <c r="E48" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="82" t="str">
+      <c r="A49" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B49" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="83">
+      <c r="B49" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="68">
         <v>44718</v>
       </c>
-      <c r="D49" s="84">
+      <c r="D49" s="69">
         <v>5</v>
       </c>
-      <c r="E49" s="82" t="str">
+      <c r="E49" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82" t="str">
+      <c r="A50" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B50" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="83">
+      <c r="B50" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="68">
         <v>44613</v>
       </c>
-      <c r="D50" s="84">
+      <c r="D50" s="69">
         <v>0</v>
       </c>
-      <c r="E50" s="82" t="str">
+      <c r="E50" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="82" t="str">
+      <c r="A51" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B51" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="83">
+      <c r="B51" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="68">
         <v>44608</v>
       </c>
-      <c r="D51" s="84">
+      <c r="D51" s="69">
         <v>100</v>
       </c>
-      <c r="E51" s="82" t="str">
+      <c r="E51" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="82" t="str">
+      <c r="A52" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B52" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="83">
+      <c r="B52" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="68">
         <v>44596</v>
       </c>
-      <c r="D52" s="84">
+      <c r="D52" s="69">
         <v>88</v>
       </c>
-      <c r="E52" s="82" t="str">
+      <c r="E52" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="82" t="str">
+      <c r="A53" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B53" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="83">
+      <c r="B53" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="68">
         <v>44560</v>
       </c>
-      <c r="D53" s="84">
+      <c r="D53" s="69">
         <v>92.66</v>
       </c>
-      <c r="E53" s="82" t="str">
+      <c r="E53" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82" t="str">
+      <c r="A54" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B54" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="83">
+      <c r="B54" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="68">
         <v>44596</v>
       </c>
-      <c r="D54" s="84">
+      <c r="D54" s="69">
         <v>0</v>
       </c>
-      <c r="E54" s="82" t="str">
+      <c r="E54" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="str">
+      <c r="A55" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B55" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="83">
+      <c r="B55" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="68">
         <v>44554</v>
       </c>
-      <c r="D55" s="84">
+      <c r="D55" s="69">
         <v>88.13</v>
       </c>
-      <c r="E55" s="82" t="str">
+      <c r="E55" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="str">
+      <c r="A56" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B56" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="83">
+      <c r="B56" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="68">
         <v>44550</v>
       </c>
-      <c r="D56" s="84">
+      <c r="D56" s="69">
         <v>88</v>
       </c>
-      <c r="E56" s="82" t="str">
+      <c r="E56" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="82" t="str">
+      <c r="A57" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B57" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="83">
+      <c r="B57" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="68">
         <v>44488</v>
       </c>
-      <c r="D57" s="84">
+      <c r="D57" s="69">
         <v>90.89</v>
       </c>
-      <c r="E57" s="82" t="str">
+      <c r="E57" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82" t="str">
+      <c r="A58" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B58" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="83">
+      <c r="B58" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="68">
         <v>44633</v>
       </c>
-      <c r="D58" s="84">
+      <c r="D58" s="69">
         <v>0</v>
       </c>
-      <c r="E58" s="82" t="str">
+      <c r="E58" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="str">
+      <c r="A59" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[Course], Specialization[Specialization], "NaN")</f>
         <v>NaN</v>
       </c>
-      <c r="B59" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="83">
+      <c r="B59" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="68">
         <v>44702</v>
       </c>
-      <c r="D59" s="84">
+      <c r="D59" s="69">
         <v>0</v>
       </c>
-      <c r="E59" s="82" t="str">
+      <c r="E59" s="67" t="str">
         <f>_xlfn.XLOOKUP(Courses[[#This Row],[Certificate Name]], Specialization[Specialization], Specialization[Link], "NaN")</f>
         <v>NaN</v>
       </c>
@@ -24914,694 +24875,694 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="82" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="82"/>
+    <col min="1" max="1" width="8.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="67" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="D1" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="E1" s="67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="72">
+        <v>44577</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="82">
-        <v>1</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="86" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D3" s="72">
         <v>44577</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82">
-        <v>2</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="87">
-        <v>44577</v>
-      </c>
-      <c r="E3" s="82" t="str">
+      <c r="E3" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E2, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="87">
+      <c r="B4" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="72">
         <v>44577</v>
       </c>
-      <c r="E4" s="82" t="str">
+      <c r="E4" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E3, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="87">
+      <c r="B5" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="72">
         <v>44577</v>
       </c>
-      <c r="E5" s="82" t="str">
+      <c r="E5" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E4, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="87">
+      <c r="B6" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="72">
         <v>44577</v>
       </c>
-      <c r="E6" s="82" t="str">
+      <c r="E6" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E5, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="87">
+      <c r="B7" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="72">
         <v>44577</v>
       </c>
-      <c r="E7" s="82" t="str">
+      <c r="E7" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E6, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="82">
+      <c r="A8" s="67">
         <v>7</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="87">
+      <c r="B8" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="72">
         <v>44577</v>
       </c>
-      <c r="E8" s="82" t="str">
+      <c r="E8" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E7, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="87">
+      <c r="B9" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="72">
         <v>44577</v>
       </c>
-      <c r="E9" s="82" t="str">
+      <c r="E9" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E8, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+      <c r="A10" s="67">
         <v>9</v>
       </c>
-      <c r="B10" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="87">
+      <c r="B10" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="72">
         <v>44577</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="67" t="str">
         <f>IF(Specialization[[#This Row],[Specialization]] = "IBM Data Analyst", E9, 0)</f>
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="67">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="87">
+      <c r="B11" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="72">
         <v>44695</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>224</v>
+      <c r="E11" s="73" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="82">
+      <c r="A12" s="67">
         <f t="shared" ref="A12:A38" si="0">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="87">
+      <c r="B12" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="72">
         <v>44695</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>225</v>
+      <c r="E12" s="73" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+      <c r="A13" s="67">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="87">
+      <c r="B13" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="72">
         <v>44695</v>
       </c>
-      <c r="E13" s="88" t="s">
-        <v>226</v>
+      <c r="E13" s="73" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82">
+      <c r="A14" s="67">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="87">
+      <c r="B14" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="72">
         <v>44695</v>
       </c>
-      <c r="E14" s="88" t="s">
-        <v>227</v>
+      <c r="E14" s="73" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+      <c r="A15" s="67">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="87">
+      <c r="B15" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="72">
         <v>44695</v>
       </c>
-      <c r="E15" s="88" t="s">
-        <v>228</v>
+      <c r="E15" s="73" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="82">
+      <c r="A16" s="67">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="87">
+      <c r="B16" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="72">
         <v>44695</v>
       </c>
-      <c r="E16" s="88" t="s">
-        <v>229</v>
+      <c r="E16" s="73" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82">
+      <c r="A17" s="67">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="89">
+      <c r="B17" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="74">
         <v>44687</v>
       </c>
-      <c r="E17" s="88" t="s">
-        <v>230</v>
+      <c r="E17" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="82">
+      <c r="A18" s="67">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="89">
+      <c r="B18" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="74">
         <v>44687</v>
       </c>
-      <c r="E18" s="88" t="s">
-        <v>230</v>
+      <c r="E18" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="82">
+      <c r="A19" s="67">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="89">
+      <c r="B19" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="74">
         <v>44687</v>
       </c>
-      <c r="E19" s="88" t="s">
-        <v>230</v>
+      <c r="E19" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="82">
+      <c r="A20" s="67">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="89">
+      <c r="B20" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="74">
         <v>44687</v>
       </c>
-      <c r="E20" s="88" t="s">
-        <v>230</v>
+      <c r="E20" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="82">
+      <c r="A21" s="67">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="89">
+      <c r="B21" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="74">
         <v>44687</v>
       </c>
-      <c r="E21" s="88" t="s">
-        <v>230</v>
+      <c r="E21" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="82">
+      <c r="A22" s="67">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="89">
+      <c r="B22" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="74">
         <v>44687</v>
       </c>
-      <c r="E22" s="88" t="s">
-        <v>230</v>
+      <c r="E22" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="82">
+      <c r="A23" s="67">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="89">
+      <c r="B23" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="74">
         <v>44687</v>
       </c>
-      <c r="E23" s="88" t="s">
-        <v>230</v>
+      <c r="E23" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="82">
+      <c r="A24" s="67">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="89">
+      <c r="B24" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="74">
         <v>44687</v>
       </c>
-      <c r="E24" s="88" t="s">
-        <v>230</v>
+      <c r="E24" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="82">
+      <c r="A25" s="67">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="89">
+      <c r="B25" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="74">
         <v>44687</v>
       </c>
-      <c r="E25" s="88" t="s">
-        <v>230</v>
+      <c r="E25" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="82">
+      <c r="A26" s="67">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="89">
+      <c r="B26" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="74">
         <v>44687</v>
       </c>
-      <c r="E26" s="88" t="s">
-        <v>230</v>
+      <c r="E26" s="73" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="82">
+      <c r="A27" s="67">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="87">
+      <c r="B27" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="72">
         <v>44578</v>
       </c>
-      <c r="E27" s="88" t="s">
-        <v>232</v>
+      <c r="E27" s="73" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="82">
+      <c r="A28" s="67">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="72">
+        <v>44578</v>
+      </c>
+      <c r="E28" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="87">
-        <v>44578</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="82">
+      <c r="A29" s="67">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="87">
+      <c r="B29" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="72">
         <v>44578</v>
       </c>
-      <c r="E29" s="88" t="s">
-        <v>234</v>
+      <c r="E29" s="73" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="82">
+      <c r="A30" s="67">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="87">
+      <c r="B30" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="72">
         <v>44578</v>
       </c>
-      <c r="E30" s="88" t="s">
-        <v>235</v>
+      <c r="E30" s="73" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="82">
+      <c r="A31" s="67">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="87">
+      <c r="C31" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="72">
         <v>44559</v>
       </c>
-      <c r="E31" s="88" t="s">
-        <v>236</v>
+      <c r="E31" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="82">
+      <c r="A32" s="67">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="87">
+      <c r="C32" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="72">
         <v>44559</v>
       </c>
-      <c r="E32" s="88" t="s">
-        <v>236</v>
+      <c r="E32" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="82">
+      <c r="A33" s="67">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="87">
+      <c r="C33" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="72">
         <v>44559</v>
       </c>
-      <c r="E33" s="88" t="s">
-        <v>236</v>
+      <c r="E33" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="82">
+      <c r="A34" s="67">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="87">
+      <c r="C34" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="72">
         <v>44559</v>
       </c>
-      <c r="E34" s="88" t="s">
-        <v>236</v>
+      <c r="E34" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="82">
+      <c r="A35" s="67">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="87">
+      <c r="C35" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="72">
         <v>44559</v>
       </c>
-      <c r="E35" s="88" t="s">
-        <v>236</v>
+      <c r="E35" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="82">
+      <c r="A36" s="67">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="87">
+      <c r="C36" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="72">
         <v>44559</v>
       </c>
-      <c r="E36" s="88" t="s">
-        <v>236</v>
+      <c r="E36" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="82">
+      <c r="A37" s="67">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="87">
+      <c r="C37" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="72">
         <v>44559</v>
       </c>
-      <c r="E37" s="88" t="s">
-        <v>236</v>
+      <c r="E37" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="82">
+      <c r="A38" s="67">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="87">
+      <c r="C38" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="72">
         <v>44559</v>
       </c>
-      <c r="E38" s="88" t="s">
-        <v>236</v>
+      <c r="E38" s="73" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -25664,16 +25625,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -25682,7 +25643,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -25724,7 +25685,7 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -25744,12 +25705,12 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="34">
+        <v>126</v>
+      </c>
+      <c r="H2" s="20">
         <v>44409</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="20">
         <v>44774</v>
       </c>
       <c r="L2">
@@ -25794,12 +25755,12 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="34">
+        <v>126</v>
+      </c>
+      <c r="H3" s="20">
         <v>44409</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="20">
         <v>44598</v>
       </c>
       <c r="L3">
@@ -25841,12 +25802,12 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="34">
+        <v>126</v>
+      </c>
+      <c r="H4" s="20">
         <v>44409</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="20">
         <v>44598</v>
       </c>
       <c r="L4">
@@ -25888,12 +25849,12 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="34">
+        <v>126</v>
+      </c>
+      <c r="H5" s="20">
         <v>44409</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="20">
         <v>44598</v>
       </c>
       <c r="L5">
@@ -25935,12 +25896,12 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="34">
+        <v>126</v>
+      </c>
+      <c r="H6" s="20">
         <v>44409</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="20">
         <v>44598</v>
       </c>
       <c r="L6">
@@ -25982,12 +25943,12 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="34">
+        <v>126</v>
+      </c>
+      <c r="H7" s="20">
         <v>44409</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="20">
         <v>44486</v>
       </c>
       <c r="L7">
@@ -26029,12 +25990,12 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="34">
+        <v>126</v>
+      </c>
+      <c r="H8" s="20">
         <v>44409</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="20">
         <v>44496</v>
       </c>
       <c r="L8">
@@ -26096,68 +26057,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="70">
+      <c r="B1" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26165,73 +26126,73 @@
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="19">
         <v>4</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33">
+      <c r="A11" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33">
+      <c r="A12" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="19">
         <v>1</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26239,35 +26200,35 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="19">
         <v>2</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="19">
         <v>1</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="19">
         <v>1</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26275,59 +26236,59 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="19">
         <v>1</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26335,83 +26296,83 @@
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="19">
         <v>6</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="19">
         <v>1</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="19">
         <v>1</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="19">
         <v>1</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="19">
         <v>1</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="19">
         <v>1</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="19">
         <v>1</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26419,23 +26380,23 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="19">
         <v>1</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26443,23 +26404,23 @@
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="19">
         <v>1</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="19">
         <v>1</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26467,23 +26428,23 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="19">
         <v>1</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="19">
         <v>1</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19">
         <v>1</v>
       </c>
     </row>
@@ -26491,61 +26452,61 @@
       <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="19">
         <v>1</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="19">
         <v>1</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="33">
+        <v>153</v>
+      </c>
+      <c r="B37" s="19">
         <v>1</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="19">
         <v>1</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="33">
+        <v>123</v>
+      </c>
+      <c r="B39" s="19">
         <v>20</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="19">
         <v>4</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="19">
         <v>24</v>
       </c>
     </row>
